--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,6 +31,9 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
@@ -40,775 +43,772 @@
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
   </si>
   <si>
     <t>flower/flower015.png</t>
   </si>
   <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
     <t>car/car013.png</t>
   </si>
   <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
   </si>
   <si>
     <t>face/face011.png</t>
   </si>
   <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
   </si>
   <si>
     <t>car/car003.png</t>
   </si>
   <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
+    <t>car/car014.png</t>
   </si>
   <si>
     <t>flower/flower003.png</t>
   </si>
   <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
     <t>flower/flower004.png</t>
   </si>
   <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
     <t>flower/flower009.png</t>
   </si>
   <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
   </si>
   <si>
     <t>car/car031.png</t>
   </si>
   <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
   </si>
   <si>
     <t>dog/dog022.png</t>
   </si>
   <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
     <t>flower/flower019.png</t>
   </si>
   <si>
     <t>flower/flower022.png</t>
   </si>
   <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
     <t>car/car026.png</t>
   </si>
   <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
     <t>face/face018.png</t>
   </si>
   <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
     <t>face/face023.png</t>
   </si>
   <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
   </si>
   <si>
     <t>car/car039.png</t>
   </si>
   <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
     <t>face/face046.png</t>
   </si>
   <si>
-    <t>face/face034.png</t>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face038.png</t>
   </si>
   <si>
     <t>face/face032.png</t>
   </si>
   <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
   </si>
   <si>
     <t>face/face049.png</t>
   </si>
   <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
     <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.608155377682198</v>
+        <v>1.426754302778875</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.342509492424914</v>
+        <v>1.463967416641746</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.356587081017717</v>
+        <v>1.669459617397147</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.337259862120617</v>
+        <v>1.467410166128138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.386920333178066</v>
+        <v>1.444323279362995</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.590389270672632</v>
+        <v>1.552508268929146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.61410773516068</v>
+        <v>1.524625255437366</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.504091514944696</v>
+        <v>1.356224514574722</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.554012068320771</v>
+        <v>1.841185741806637</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.689939942268637</v>
+        <v>1.617043960273626</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.378884309081414</v>
+        <v>1.640125099724215</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.619111630551612</v>
+        <v>1.463736698410168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.493358888932842</v>
+        <v>1.505478224842032</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.342228989235765</v>
+        <v>1.592456768850703</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.427637246707584</v>
+        <v>1.66333360857003</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.378365386196403</v>
+        <v>1.538576283908096</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.397150980067155</v>
+        <v>1.640161859422674</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.402458543590608</v>
+        <v>1.247093276233739</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.315798574022981</v>
+        <v>1.630124105310217</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.361564618287511</v>
+        <v>1.475534147245914</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.436311737274131</v>
+        <v>1.876525923080389</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1.573401469002217</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.557654236621595</v>
+        <v>1.508404427101658</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.500024384083019</v>
+        <v>1.351771604240308</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.352310003493764</v>
+        <v>1.485953432512366</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.485842222294487</v>
+        <v>1.215550351079709</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.643792749167771</v>
+        <v>1.765294348285319</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.65818012148776</v>
+        <v>1.263194495418657</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.712248780294865</v>
+        <v>1.463963963480683</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.353687502119518</v>
+        <v>1.715581028309037</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.519167863066506</v>
+        <v>1.570313793043874</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.435195103693452</v>
+        <v>1.521497027684941</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1.18866109273166</v>
+        <v>1.746995510778119</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.347319411338231</v>
+        <v>1.650561063495673</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.530836065360189</v>
+        <v>1.375881978142194</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.517505621759544</v>
+        <v>1.539018685300422</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1923,10 +1923,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.206243257725687</v>
+        <v>1.496666953625349</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.272431694513333</v>
+        <v>1.670364006944455</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.319125215212377</v>
+        <v>1.528298646545873</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.354127867868826</v>
+        <v>1.473387000797013</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.723952129148481</v>
+        <v>1.539448711587611</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.629784230409493</v>
+        <v>1.312411427482855</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.096718152693871</v>
+        <v>1.524498407638649</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.381726055258232</v>
+        <v>1.685582389637432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.463156940093705</v>
+        <v>1.383302343685769</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.493991171741728</v>
+        <v>1.479765604415513</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.625393756315873</v>
+        <v>1.23595833489347</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.392654347690458</v>
+        <v>1.616433654212158</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.394088732662205</v>
+        <v>1.459974585765596</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.277975279244686</v>
+        <v>1.660587107338915</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.452956851540257</v>
+        <v>1.53903472488167</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.519747176704322</v>
+        <v>1.484125651975574</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.515662912724197</v>
+        <v>1.482628630914168</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.570270704261389</v>
+        <v>1.62230448654037</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.613147601221031</v>
+        <v>1.493569089429742</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.598178377764651</v>
+        <v>1.560257285740891</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.72297710326955</v>
+        <v>1.509657805407684</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.453517033268015</v>
+        <v>1.860563932790978</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.489561672742094</v>
+        <v>1.250016017664634</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.710569118580025</v>
+        <v>1.418891536180549</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1.575898977224827</v>
+        <v>1.611622715157697</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.772777126621389</v>
+        <v>1.460740281867564</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.443649091428246</v>
+        <v>1.668113140009893</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.217365101933949</v>
+        <v>1.758561990282319</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.663521728992177</v>
+        <v>1.312626151753542</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.779969011259124</v>
+        <v>1.627059356271639</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.277420328103176</v>
+        <v>1.274084141709401</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.228332764469194</v>
+        <v>1.374344318583522</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.346815296430085</v>
+        <v>1.3061195692532</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.418692545641811</v>
+        <v>1.526069016881377</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.624855693222307</v>
+        <v>1.545485786611485</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.447225064579893</v>
+        <v>1.494360756324264</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.285517311168867</v>
+        <v>1.697324491101328</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.563655255661573</v>
+        <v>1.503962859752532</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.124324211806252</v>
+        <v>1.689456606263652</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.612714651127436</v>
+        <v>1.56706856712225</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.652857244352901</v>
+        <v>1.602599530901516</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.162491530274801</v>
+        <v>1.512089929007455</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.693672128206392</v>
+        <v>1.390905221426577</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.435832314331748</v>
+        <v>1.557579326496056</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.55260828981085</v>
+        <v>1.530109319359758</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.337989600867186</v>
+        <v>1.556174009379947</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="F84">
-        <v>1.420840617246367</v>
+        <v>1.348656561851176</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.612042636734438</v>
+        <v>1.528125448876091</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.602212142966455</v>
+        <v>1.678165030410269</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.586155843123728</v>
+        <v>1.732564215055311</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.455164310408138</v>
+        <v>1.218571237418789</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>1.656410553676747</v>
+        <v>1.428716817912068</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.56454410126441</v>
+        <v>1.534889753012904</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.341025372403795</v>
+        <v>1.432950335769245</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.474012790067908</v>
+        <v>1.566401454047848</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.501251290260422</v>
+        <v>1.201265453469333</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.337913681092756</v>
+        <v>1.55586046550857</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.196741109602692</v>
+        <v>1.436836103533</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.162584191760345</v>
+        <v>1.518347705729471</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.481347550207382</v>
+        <v>1.463853339458948</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.318597487941204</v>
+        <v>1.57001689022967</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.643837565976137</v>
+        <v>1.334994384331359</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.625346265882408</v>
+        <v>1.715634398294329</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.704130568835561</v>
+        <v>1.177938796668208</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.602578625913724</v>
+        <v>1.531863568470834</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.315882544080154</v>
+        <v>1.409107405185244</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.316281220012905</v>
+        <v>1.574626582392566</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.524719405506307</v>
+        <v>1.548868952580044</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.434729653071304</v>
+        <v>1.587313785387975</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.384656127398894</v>
+        <v>1.701653897762822</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.632646255641048</v>
+        <v>1.75344326039466</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.53634674531425</v>
+        <v>1.557457656509701</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.38877899713695</v>
+        <v>1.614363199427158</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.561083608270755</v>
+        <v>1.386010651799506</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.608470583235874</v>
+        <v>1.546209077300284</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.463569085375052</v>
+        <v>1.702294431779405</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.43234083673883</v>
+        <v>1.624532600148318</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.343247911592444</v>
+        <v>1.618351055182409</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.3172054213085</v>
+        <v>1.563132885981126</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.412033851106683</v>
+        <v>1.663026131114751</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.785557212586225</v>
+        <v>1.424917102932067</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.435472593399298</v>
+        <v>1.496307501751585</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.451121603096638</v>
+        <v>1.554498826464474</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.578878819108848</v>
+        <v>1.678805924017548</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.694415073764181</v>
+        <v>1.354935952320988</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.405479192333768</v>
+        <v>1.419056326574237</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.443748868054451</v>
+        <v>1.53441987910173</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.37652409464149</v>
+        <v>1.761418346836764</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.300442654299815</v>
+        <v>1.382557131446967</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.536843298651617</v>
+        <v>1.557765561398883</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="F128">
-        <v>1.7064628908612</v>
+        <v>1.324187562076993</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.198834290739768</v>
+        <v>1.611956136417481</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.687779406630807</v>
+        <v>1.400546716848067</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.364832357380048</v>
+        <v>1.481010481669778</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.674111070368016</v>
+        <v>1.406002620788935</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.611149140552558</v>
+        <v>1.42045498550063</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.437776167039513</v>
+        <v>1.233453479238695</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.545124293091939</v>
+        <v>1.216403228200225</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.321923568170627</v>
+        <v>1.57428608176635</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.348921118958114</v>
+        <v>1.486143572924222</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.397694255905551</v>
+        <v>1.608576882934663</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.464674094846689</v>
+        <v>1.042683522572642</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.615692038580317</v>
+        <v>1.562678525548605</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.492277853688299</v>
+        <v>1.467033474039631</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.531170316488851</v>
+        <v>1.32423822220695</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.366081881525102</v>
+        <v>1.392410618089843</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.377829778773035</v>
+        <v>1.508058142127016</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.287428445649525</v>
+        <v>1.611283922694342</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.522736899973294</v>
+        <v>1.156320558436932</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.369404439299333</v>
+        <v>1.661911491253172</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.655420036645897</v>
+        <v>1.512437375911856</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.234837452541869</v>
+        <v>1.389016439955725</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.758405400737144</v>
+        <v>1.458888140722613</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.509913720916893</v>
+        <v>1.557878541159263</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.416989041021622</v>
+        <v>1.230818371838289</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.323050814124449</v>
+        <v>1.503242708358606</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.348883270256374</v>
+        <v>1.7099865845849</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.408100904125386</v>
+        <v>1.634011839904974</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.582888863616601</v>
+        <v>1.551927968498474</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.432291734401041</v>
+        <v>1.461629865169242</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.651555112772958</v>
+        <v>1.772441421140723</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.692389311544385</v>
+        <v>1.660553837890163</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.439086471514092</v>
+        <v>1.484155973693297</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.565426810367758</v>
+        <v>1.498056959482998</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.351428809658545</v>
+        <v>1.585652781586078</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.476275793834661</v>
+        <v>1.553482548191487</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.533941471075745</v>
+        <v>1.45063198513036</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.70295251872885</v>
+        <v>1.533674162738583</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.685143323857545</v>
+        <v>1.584670358087993</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.520693080027113</v>
+        <v>1.468773870847397</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.52406637569269</v>
+        <v>1.446864146480376</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.372214888345459</v>
+        <v>1.505930377089356</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.518538936202205</v>
+        <v>1.697569541804132</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.389264931967221</v>
+        <v>1.554379113920524</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.402573081676645</v>
+        <v>1.568839518044503</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.568706813837591</v>
+        <v>1.607664122217649</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.576125436570696</v>
+        <v>1.440630995916834</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.567973978922619</v>
+        <v>1.611483282397255</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.633557959180986</v>
+        <v>1.640852753426056</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.675625097675007</v>
+        <v>1.552927832163505</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.357661813406286</v>
+        <v>1.644160737476781</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.506441244742849</v>
+        <v>1.628604580333536</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.647162999379737</v>
+        <v>1.495675044198446</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.525079740604019</v>
+        <v>1.930893973782988</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.312787029495159</v>
+        <v>1.345807834959958</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.636091185216593</v>
+        <v>1.675801601782757</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.33963137544348</v>
+        <v>1.373194837482207</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.579460164358473</v>
+        <v>1.404537436637024</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.17939834596376</v>
+        <v>1.413419937381973</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.532264110195153</v>
+        <v>1.282212369408209</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.557595043622802</v>
+        <v>1.611139023662922</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.686550586183482</v>
+        <v>1.845300135017829</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.377199802948599</v>
+        <v>1.36695029512556</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.470483460941433</v>
+        <v>1.85941700998805</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.555771854909523</v>
+        <v>1.426074179853509</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.386154361009428</v>
+        <v>1.785195840016225</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.422695270599159</v>
+        <v>1.442369365526057</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.455386286493891</v>
+        <v>1.593478092239145</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.334189523218862</v>
+        <v>1.609183367456797</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.433682663890228</v>
+        <v>1.557952740880066</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.489558446572645</v>
+        <v>1.613445690849461</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.370337181268366</v>
+        <v>1.60774012750677</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.47957415741668</v>
+        <v>1.513595842597142</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.512025030057638</v>
+        <v>1.460257012060185</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.620478200713144</v>
+        <v>1.590783802546442</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.622006029952962</v>
+        <v>1.332624337943811</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="F204">
-        <v>1.583111240450735</v>
+        <v>1.299161614100117</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.376481399576083</v>
+        <v>1.633877515150994</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.333187186336738</v>
+        <v>1.807530620866669</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.365014512574255</v>
+        <v>1.587771781306958</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.713516734480914</v>
+        <v>1.574463102881242</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.374225321737197</v>
+        <v>1.46388942758909</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.592513084014876</v>
+        <v>1.588175670331023</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.487283329109622</v>
+        <v>1.542557941052121</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.452307650980242</v>
+        <v>1.603412963067246</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.355792269951828</v>
+        <v>1.346018895362975</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.728377277231238</v>
+        <v>1.59755999622584</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.555678639461581</v>
+        <v>1.339994160992448</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.730412949072726</v>
+        <v>1.301956234582769</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.398940835841489</v>
+        <v>1.538587128889243</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.452357066770712</v>
+        <v>1.702534382630195</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.391741816462224</v>
+        <v>1.443491990965191</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.543282308787734</v>
+        <v>1.218738472185772</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.227331423956954</v>
+        <v>1.744841771581193</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.311313688279195</v>
+        <v>1.232766348977613</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.591367428358549</v>
+        <v>1.457964230766431</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.238673865520067</v>
+        <v>1.709349617292555</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.810829262838784</v>
+        <v>1.474288607752511</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.59695931074466</v>
+        <v>1.697787026799786</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.461420117491442</v>
+        <v>1.669495868279532</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.38750109299324</v>
+        <v>1.851626162019727</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.473570818740215</v>
+        <v>1.435579789811624</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.374804342020057</v>
+        <v>1.571332109150903</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.657637604394262</v>
+        <v>1.458103707614379</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>1.595939200941674</v>
+        <v>1.804244764075429</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.625972813269332</v>
+        <v>1.441824027761284</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.702523249553722</v>
+        <v>1.42098861047607</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.567832454423652</v>
+        <v>1.433151321624961</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.616166481358003</v>
+        <v>1.832981206879267</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.516669354970242</v>
+        <v>1.355189267878386</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.333789122972312</v>
+        <v>1.550774531743996</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.37357961342375</v>
+        <v>1.438069117267508</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.608508200713126</v>
+        <v>1.290692807175522</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.416478713724632</v>
+        <v>1.749868634845705</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.48327304677003</v>
+        <v>1.716149800501948</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.488276572765956</v>
+        <v>1.523180873285989</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.429326444945581</v>
+        <v>1.467035183818494</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.607811024209973</v>
+        <v>1.767990674037924</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.514589333053566</v>
+        <v>1.395282303401556</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.62889734283271</v>
+        <v>1.470073310227906</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.404235956519057</v>
+        <v>1.293959437973997</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.343143990642993</v>
+        <v>1.346512038258352</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.467198303421448</v>
+        <v>1.422992743292267</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.526040642371654</v>
+        <v>1.318589971247118</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.642560022401785</v>
+        <v>1.583489210073852</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.582611774728021</v>
+        <v>1.528344397267515</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.539954965974645</v>
+        <v>1.411945628172855</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.5927785101454</v>
+        <v>1.423895620848248</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.647228692731916</v>
+        <v>1.684669636279633</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.476021909074311</v>
+        <v>1.515303396130962</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.426754302778875</v>
+        <v>1.622076155345599</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.463967416641746</v>
+        <v>1.558613281652248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.669459617397147</v>
+        <v>1.252027414473488</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.467410166128138</v>
+        <v>1.178638307516596</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.444323279362995</v>
+        <v>1.729876409682273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.552508268929146</v>
+        <v>1.606809912249068</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.524625255437366</v>
+        <v>1.533343315993227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.356224514574722</v>
+        <v>1.435179333236844</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.841185741806637</v>
+        <v>1.229128035614794</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.617043960273626</v>
+        <v>1.287040097085031</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.640125099724215</v>
+        <v>1.751179986218652</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.463736698410168</v>
+        <v>1.472678632765988</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.505478224842032</v>
+        <v>1.740184359802412</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.592456768850703</v>
+        <v>1.474545546932197</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.66333360857003</v>
+        <v>1.411280040639043</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.538576283908096</v>
+        <v>1.412219510108396</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.640161859422674</v>
+        <v>1.694571119304302</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.247093276233739</v>
+        <v>1.666525458041164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.630124105310217</v>
+        <v>1.364702212816872</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.475534147245914</v>
+        <v>1.595231364365848</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.876525923080389</v>
+        <v>1.589610217052991</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.573401469002217</v>
+        <v>1.359638109702815</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.508404427101658</v>
+        <v>1.355087408408759</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.351771604240308</v>
+        <v>1.85855844631032</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.485953432512366</v>
+        <v>1.386733361159154</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.215550351079709</v>
+        <v>1.315554382341462</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.765294348285319</v>
+        <v>1.461760463998967</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.263194495418657</v>
+        <v>1.305147282184692</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.463963963480683</v>
+        <v>1.612250055998758</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.715581028309037</v>
+        <v>1.482188184851918</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.570313793043874</v>
+        <v>1.644050578438395</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.521497027684941</v>
+        <v>1.554030876257829</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.746995510778119</v>
+        <v>1.472619981756584</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.650561063495673</v>
+        <v>1.513150278664928</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.375881978142194</v>
+        <v>1.433335229871799</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.539018685300422</v>
+        <v>1.641685071389161</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.496666953625349</v>
+        <v>1.62142974442161</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.670364006944455</v>
+        <v>1.54394488050442</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.528298646545873</v>
+        <v>1.693196032219402</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.473387000797013</v>
+        <v>1.507706032543365</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.539448711587611</v>
+        <v>1.75393616333949</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.312411427482855</v>
+        <v>1.539993046524171</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.524498407638649</v>
+        <v>1.521919157029365</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.685582389637432</v>
+        <v>1.623833191536834</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.383302343685769</v>
+        <v>1.292818530326456</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.479765604415513</v>
+        <v>1.391563297208973</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.23595833489347</v>
+        <v>1.135252326788203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.616433654212158</v>
+        <v>1.617854667451013</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.459974585765596</v>
+        <v>1.272003783290472</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.660587107338915</v>
+        <v>1.639472808708246</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.53903472488167</v>
+        <v>1.768937355262225</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.484125651975574</v>
+        <v>1.61385232677684</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.482628630914168</v>
+        <v>1.347587378894484</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.62230448654037</v>
+        <v>1.596692231082282</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.493569089429742</v>
+        <v>1.544102916727712</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.560257285740891</v>
+        <v>1.616967834326584</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.509657805407684</v>
+        <v>1.59039022552874</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.860563932790978</v>
+        <v>1.585948743732954</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.250016017664634</v>
+        <v>1.391898320873415</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.418891536180549</v>
+        <v>1.42270848761923</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.611622715157697</v>
+        <v>1.362082787379033</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.460740281867564</v>
+        <v>1.258068862610446</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.668113140009893</v>
+        <v>1.494358724881575</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.758561990282319</v>
+        <v>1.683206927930807</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.312626151753542</v>
+        <v>1.621882130876029</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.627059356271639</v>
+        <v>1.535878077972866</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.274084141709401</v>
+        <v>1.559979335237224</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.374344318583522</v>
+        <v>1.408426690154736</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.3061195692532</v>
+        <v>1.609214617818787</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.526069016881377</v>
+        <v>1.59799665026813</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.545485786611485</v>
+        <v>1.586818312851977</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.494360756324264</v>
+        <v>1.348868595627126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.697324491101328</v>
+        <v>1.421819947110831</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.503962859752532</v>
+        <v>1.493454333668215</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.689456606263652</v>
+        <v>1.784022656931882</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.56706856712225</v>
+        <v>1.472085746056215</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.602599530901516</v>
+        <v>1.411456728280171</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.512089929007455</v>
+        <v>1.45618604597373</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.390905221426577</v>
+        <v>1.569726551793069</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.557579326496056</v>
+        <v>1.210763266260489</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.530109319359758</v>
+        <v>1.488247713806881</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.556174009379947</v>
+        <v>1.326195907122946</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.348656561851176</v>
+        <v>1.385619153709649</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.528125448876091</v>
+        <v>1.454298414799416</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.678165030410269</v>
+        <v>1.513489800772329</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.732564215055311</v>
+        <v>1.649628496845168</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.218571237418789</v>
+        <v>1.504129069655739</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2943,10 +2943,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1.428716817912068</v>
+        <v>1.294735983956848</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.534889753012904</v>
+        <v>1.724718272296822</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.432950335769245</v>
+        <v>1.423230854815781</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.566401454047848</v>
+        <v>1.37548525117473</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.201265453469333</v>
+        <v>1.526675667272149</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.55586046550857</v>
+        <v>1.602808927672039</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.436836103533</v>
+        <v>1.512067850571456</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.518347705729471</v>
+        <v>1.713379753184886</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.463853339458948</v>
+        <v>1.364766924924438</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.57001689022967</v>
+        <v>1.400533479214585</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.334994384331359</v>
+        <v>1.633197909928561</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.715634398294329</v>
+        <v>1.664114498860994</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.177938796668208</v>
+        <v>1.464555521351804</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.531863568470834</v>
+        <v>1.675315250219527</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.409107405185244</v>
+        <v>1.634589072998747</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.574626582392566</v>
+        <v>1.636479948785332</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.548868952580044</v>
+        <v>1.647021142966568</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.587313785387975</v>
+        <v>1.287286898188795</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.701653897762822</v>
+        <v>1.240370686719919</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.75344326039466</v>
+        <v>1.503747489058216</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.557457656509701</v>
+        <v>1.568471452012769</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.614363199427158</v>
+        <v>1.561186870125357</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.386010651799506</v>
+        <v>1.464414167335673</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.546209077300284</v>
+        <v>1.271571334555443</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.702294431779405</v>
+        <v>1.537496109560715</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.624532600148318</v>
+        <v>1.407974450185111</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.618351055182409</v>
+        <v>1.48050047915428</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.563132885981126</v>
+        <v>1.38742670449578</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.663026131114751</v>
+        <v>1.437167691556077</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.424917102932067</v>
+        <v>1.521961045869866</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.496307501751585</v>
+        <v>1.316851916568492</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.554498826464474</v>
+        <v>1.640858907021189</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.678805924017548</v>
+        <v>1.553011999122065</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.354935952320988</v>
+        <v>1.306537216018177</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.419056326574237</v>
+        <v>1.684136322588843</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.53441987910173</v>
+        <v>1.497300827557972</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.761418346836764</v>
+        <v>1.650805916470544</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.382557131446967</v>
+        <v>1.45589775716659</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.557765561398883</v>
+        <v>1.412756160634489</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.324187562076993</v>
+        <v>1.44553081474224</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.611956136417481</v>
+        <v>1.407769232836059</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.400546716848067</v>
+        <v>1.372634490514931</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.481010481669778</v>
+        <v>1.312422966560239</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.406002620788935</v>
+        <v>1.470569631176253</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.42045498550063</v>
+        <v>1.248234985199048</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.233453479238695</v>
+        <v>1.510330169203253</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.216403228200225</v>
+        <v>1.744855165504833</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.57428608176635</v>
+        <v>1.324315297163291</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.486143572924222</v>
+        <v>1.779767267630409</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.608576882934663</v>
+        <v>1.354861208492808</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.042683522572642</v>
+        <v>1.596638937739174</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.562678525548605</v>
+        <v>1.379539123176651</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.467033474039631</v>
+        <v>1.480228479197875</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.32423822220695</v>
+        <v>1.524575551753823</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.392410618089843</v>
+        <v>1.431255216498849</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.508058142127016</v>
+        <v>1.405003948323596</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.611283922694342</v>
+        <v>1.544587520585604</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.156320558436932</v>
+        <v>1.538399236668653</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.661911491253172</v>
+        <v>1.417532942664971</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.512437375911856</v>
+        <v>1.336517923654925</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.389016439955725</v>
+        <v>1.351729247280211</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.458888140722613</v>
+        <v>1.401567434388715</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.557878541159263</v>
+        <v>1.53815705277783</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.230818371838289</v>
+        <v>1.377579575668893</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.503242708358606</v>
+        <v>1.355747282128481</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.7099865845849</v>
+        <v>1.551965886752947</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.634011839904974</v>
+        <v>1.745137337062987</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.551927968498474</v>
+        <v>1.654011004689809</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.461629865169242</v>
+        <v>1.238795884770217</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.772441421140723</v>
+        <v>1.481176405939874</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.660553837890163</v>
+        <v>1.744890630794788</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.484155973693297</v>
+        <v>1.406283350012006</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.498056959482998</v>
+        <v>1.298750936679817</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.585652781586078</v>
+        <v>1.452612694794395</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.553482548191487</v>
+        <v>1.382195559077922</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.45063198513036</v>
+        <v>1.716013248942318</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.533674162738583</v>
+        <v>1.693986078848653</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.584670358087993</v>
+        <v>1.660931082375245</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.468773870847397</v>
+        <v>1.689429177530637</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.446864146480376</v>
+        <v>1.576701506795448</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.505930377089356</v>
+        <v>1.513953855548654</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.697569541804132</v>
+        <v>1.455729795100434</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.554379113920524</v>
+        <v>1.542815930072988</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.568839518044503</v>
+        <v>1.222074647663806</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.607664122217649</v>
+        <v>1.435761446985891</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.440630995916834</v>
+        <v>1.5768145418911</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.611483282397255</v>
+        <v>1.689605219684846</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.640852753426056</v>
+        <v>1.210114866682859</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.552927832163505</v>
+        <v>1.338808272975947</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.644160737476781</v>
+        <v>1.549204284840011</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.628604580333536</v>
+        <v>1.520120863006547</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.495675044198446</v>
+        <v>1.29757764674775</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.930893973782988</v>
+        <v>1.497377394498811</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.345807834959958</v>
+        <v>1.645166163725889</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.675801601782757</v>
+        <v>1.350720838143357</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.373194837482207</v>
+        <v>1.427098690654382</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.404537436637024</v>
+        <v>1.509050940672032</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.413419937381973</v>
+        <v>1.830580782438734</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.282212369408209</v>
+        <v>1.560561339779168</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.611139023662922</v>
+        <v>1.790628047199272</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.845300135017829</v>
+        <v>1.582266058699931</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.36695029512556</v>
+        <v>1.499586532185839</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.85941700998805</v>
+        <v>1.860897398658035</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.426074179853509</v>
+        <v>1.727402223386973</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.785195840016225</v>
+        <v>1.294835598164417</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.442369365526057</v>
+        <v>1.553525877731341</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.593478092239145</v>
+        <v>1.769318499306079</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.609183367456797</v>
+        <v>1.633136534034419</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.557952740880066</v>
+        <v>1.618794842203347</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.613445690849461</v>
+        <v>1.279309688327952</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.60774012750677</v>
+        <v>1.496211991398912</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.513595842597142</v>
+        <v>1.522285981981397</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.460257012060185</v>
+        <v>1.305285587027736</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.590783802546442</v>
+        <v>1.869021088539244</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.332624337943811</v>
+        <v>1.592444991882015</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.299161614100117</v>
+        <v>1.520702139699562</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.633877515150994</v>
+        <v>1.450504922963154</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.807530620866669</v>
+        <v>1.503789010578008</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.587771781306958</v>
+        <v>1.576840207932307</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.574463102881242</v>
+        <v>1.422606534117911</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.46388942758909</v>
+        <v>1.495813565853576</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.588175670331023</v>
+        <v>1.431734836660165</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.542557941052121</v>
+        <v>1.670592999786869</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.603412963067246</v>
+        <v>1.295556940052548</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.346018895362975</v>
+        <v>1.760319486827477</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.59755999622584</v>
+        <v>1.442242248937154</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.339994160992448</v>
+        <v>1.138261683793868</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.301956234582769</v>
+        <v>1.507996903664344</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.538587128889243</v>
+        <v>1.458334589624226</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.702534382630195</v>
+        <v>1.686927109421234</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.443491990965191</v>
+        <v>1.526637554225106</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.218738472185772</v>
+        <v>1.568069754034358</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.744841771581193</v>
+        <v>1.496909136363406</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.232766348977613</v>
+        <v>1.598601756293155</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.457964230766431</v>
+        <v>1.457783340492891</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.709349617292555</v>
+        <v>1.678510499284319</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.474288607752511</v>
+        <v>1.334616937801339</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.697787026799786</v>
+        <v>1.447108371167003</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.669495868279532</v>
+        <v>1.346618227864814</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.851626162019727</v>
+        <v>1.498313618323031</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.435579789811624</v>
+        <v>1.518916937875827</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.571332109150903</v>
+        <v>1.67293789737325</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.458103707614379</v>
+        <v>1.436846462120404</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.804244764075429</v>
+        <v>1.615160934869008</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.441824027761284</v>
+        <v>1.401628215865377</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.42098861047607</v>
+        <v>1.5289268958481</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.433151321624961</v>
+        <v>1.680489565839646</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.832981206879267</v>
+        <v>1.223264219617859</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.355189267878386</v>
+        <v>1.461146008442056</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.550774531743996</v>
+        <v>1.448002206452975</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.438069117267508</v>
+        <v>1.322544407724065</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.290692807175522</v>
+        <v>1.701456984973086</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.749868634845705</v>
+        <v>1.306943125225731</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.716149800501948</v>
+        <v>1.67901090261619</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.523180873285989</v>
+        <v>1.912237783011825</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.467035183818494</v>
+        <v>1.52301061740614</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.767990674037924</v>
+        <v>1.475389087418414</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.395282303401556</v>
+        <v>1.562091227480911</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.470073310227906</v>
+        <v>1.387816007159131</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.293959437973997</v>
+        <v>1.270329672314914</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.346512038258352</v>
+        <v>1.489480740333501</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.422992743292267</v>
+        <v>1.422540051361904</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.318589971247118</v>
+        <v>1.585685693630432</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.583489210073852</v>
+        <v>1.506528742575987</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.528344397267515</v>
+        <v>1.445847250996315</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.411945628172855</v>
+        <v>1.418189513220453</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.423895620848248</v>
+        <v>1.479431045272148</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.684669636279633</v>
+        <v>1.581998284798555</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.515303396130962</v>
+        <v>1.571481172563977</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.622076155345599</v>
+        <v>1.581085913520315</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.558613281652248</v>
+        <v>1.268236090007823</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.252027414473488</v>
+        <v>1.517405824802064</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.178638307516596</v>
+        <v>1.322502114527419</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.729876409682273</v>
+        <v>1.679912461678687</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.606809912249068</v>
+        <v>1.399799618621219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.533343315993227</v>
+        <v>1.636197905585489</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.435179333236844</v>
+        <v>1.354844544836588</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.229128035614794</v>
+        <v>1.298457360810394</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.287040097085031</v>
+        <v>1.444000180911699</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.751179986218652</v>
+        <v>1.430586190413083</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.472678632765988</v>
+        <v>1.49316874160322</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.740184359802412</v>
+        <v>1.550868710145495</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.474545546932197</v>
+        <v>1.453011694172732</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.411280040639043</v>
+        <v>1.592624476860129</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.412219510108396</v>
+        <v>1.297224092036954</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.694571119304302</v>
+        <v>1.486802780805523</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.666525458041164</v>
+        <v>1.370802466883937</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.364702212816872</v>
+        <v>1.500406366786215</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.595231364365848</v>
+        <v>1.531777391301492</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.589610217052991</v>
+        <v>1.514366852085971</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.359638109702815</v>
+        <v>1.582157213563456</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.355087408408759</v>
+        <v>1.465825447449713</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.85855844631032</v>
+        <v>1.478677145661346</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.386733361159154</v>
+        <v>1.770319700967653</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.315554382341462</v>
+        <v>1.462758638557084</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.461760463998967</v>
+        <v>1.56747916096084</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.305147282184692</v>
+        <v>1.590147272479623</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.612250055998758</v>
+        <v>1.616921902319756</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.482188184851918</v>
+        <v>1.342063540987037</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.644050578438395</v>
+        <v>1.396644148149928</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.554030876257829</v>
+        <v>1.630412727075953</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.472619981756584</v>
+        <v>1.53535283736442</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.513150278664928</v>
+        <v>1.395229997508753</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.433335229871799</v>
+        <v>1.887768732197289</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.641685071389161</v>
+        <v>1.527595563376998</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.62142974442161</v>
+        <v>1.616563931342482</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>1.54394488050442</v>
+        <v>1.762032944823525</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.693196032219402</v>
+        <v>1.564728906278046</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.507706032543365</v>
+        <v>1.73904004365134</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.75393616333949</v>
+        <v>1.668383803911953</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.539993046524171</v>
+        <v>1.128684313870856</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.521919157029365</v>
+        <v>1.429771590097336</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.623833191536834</v>
+        <v>1.283374382804415</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.292818530326456</v>
+        <v>1.228918673158111</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.391563297208973</v>
+        <v>1.476266373522698</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.135252326788203</v>
+        <v>1.567811054804823</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.617854667451013</v>
+        <v>1.591496210750096</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.272003783290472</v>
+        <v>1.592518170829031</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.639472808708246</v>
+        <v>1.365801821060383</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.768937355262225</v>
+        <v>1.35679049895191</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.61385232677684</v>
+        <v>1.48356571328013</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.347587378894484</v>
+        <v>1.458482993691173</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.596692231082282</v>
+        <v>1.549171615695541</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.544102916727712</v>
+        <v>1.548636985604637</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1.616967834326584</v>
+        <v>1.488330564351203</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.59039022552874</v>
+        <v>1.542402467580109</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.585948743732954</v>
+        <v>1.557996775430237</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.391898320873415</v>
+        <v>1.481183664948472</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.42270848761923</v>
+        <v>1.493506911811613</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.362082787379033</v>
+        <v>1.698448299853065</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.258068862610446</v>
+        <v>1.493091331555044</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.494358724881575</v>
+        <v>1.391379015750898</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.683206927930807</v>
+        <v>1.405493756423261</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.621882130876029</v>
+        <v>1.446758027473812</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.535878077972866</v>
+        <v>1.466091613497676</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.559979335237224</v>
+        <v>1.521480486772687</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.408426690154736</v>
+        <v>1.351139432461239</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.609214617818787</v>
+        <v>1.746888033839361</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.59799665026813</v>
+        <v>1.217267926246564</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.586818312851977</v>
+        <v>1.535016838371355</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.348868595627126</v>
+        <v>1.533895065543771</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.421819947110831</v>
+        <v>1.618036384109423</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.493454333668215</v>
+        <v>1.55912850695119</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.784022656931882</v>
+        <v>1.675025218284132</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.472085746056215</v>
+        <v>1.121021806374862</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.411456728280171</v>
+        <v>1.427610829854864</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.45618604597373</v>
+        <v>1.584682826394417</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.569726551793069</v>
+        <v>1.522716717149161</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.210763266260489</v>
+        <v>1.235588619355058</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.488247713806881</v>
+        <v>1.579981357344497</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.326195907122946</v>
+        <v>1.625541695527923</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.385619153709649</v>
+        <v>1.357190430405761</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.454298414799416</v>
+        <v>1.267256603461758</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.513489800772329</v>
+        <v>1.826836785992818</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.649628496845168</v>
+        <v>1.518061240919251</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.504129069655739</v>
+        <v>1.487512277549176</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.294735983956848</v>
+        <v>1.726680549161046</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.724718272296822</v>
+        <v>1.671647480108662</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.423230854815781</v>
+        <v>1.204589680915793</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.37548525117473</v>
+        <v>1.444815827449229</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.526675667272149</v>
+        <v>1.437123133687876</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.602808927672039</v>
+        <v>1.62732043384878</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.512067850571456</v>
+        <v>1.5052032662488</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.713379753184886</v>
+        <v>1.542928640779615</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.364766924924438</v>
+        <v>1.352465690522388</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.400533479214585</v>
+        <v>1.541118835787537</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.633197909928561</v>
+        <v>1.581921623567645</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.664114498860994</v>
+        <v>1.947518296972084</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.464555521351804</v>
+        <v>1.711338859362533</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.675315250219527</v>
+        <v>1.619994119982544</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.634589072998747</v>
+        <v>1.622406539437633</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.636479948785332</v>
+        <v>1.444230720717688</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.647021142966568</v>
+        <v>1.551937816598544</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.287286898188795</v>
+        <v>1.599240381793006</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.240370686719919</v>
+        <v>1.39850539675687</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.503747489058216</v>
+        <v>1.389937194864413</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.568471452012769</v>
+        <v>1.251026259911673</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1.561186870125357</v>
+        <v>1.47427567654026</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.464414167335673</v>
+        <v>1.383364416648627</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.271571334555443</v>
+        <v>1.351169991805914</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.537496109560715</v>
+        <v>1.764847931962692</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.407974450185111</v>
+        <v>1.354513469367695</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.48050047915428</v>
+        <v>1.494029655165683</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.38742670449578</v>
+        <v>1.396969612899257</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.437167691556077</v>
+        <v>1.281808180243373</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.521961045869866</v>
+        <v>1.353342951161195</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.316851916568492</v>
+        <v>1.546027068089064</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.640858907021189</v>
+        <v>1.341716245841155</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.553011999122065</v>
+        <v>1.537168029827754</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.306537216018177</v>
+        <v>1.354061856534051</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.684136322588843</v>
+        <v>1.581212263516758</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.497300827557972</v>
+        <v>1.704878990773876</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.650805916470544</v>
+        <v>1.786483823520435</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.45589775716659</v>
+        <v>1.442939157822877</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.412756160634489</v>
+        <v>1.104928558846402</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.44553081474224</v>
+        <v>1.38708565281554</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.407769232836059</v>
+        <v>1.204521037425698</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.372634490514931</v>
+        <v>1.564256859379649</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.312422966560239</v>
+        <v>1.731050009410497</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.470569631176253</v>
+        <v>1.50110796984343</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.248234985199048</v>
+        <v>1.320058340266449</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.510330169203253</v>
+        <v>1.052478430289326</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.744855165504833</v>
+        <v>1.604508109406467</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.324315297163291</v>
+        <v>1.536196811422117</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.779767267630409</v>
+        <v>1.541138747231841</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.354861208492808</v>
+        <v>1.595817491897516</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.596638937739174</v>
+        <v>1.683492809366434</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.379539123176651</v>
+        <v>1.398176678594593</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.480228479197875</v>
+        <v>1.67710533670442</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.524575551753823</v>
+        <v>1.677607912839758</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>1.431255216498849</v>
+        <v>1.58081993030769</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.405003948323596</v>
+        <v>1.596565708824228</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.544587520585604</v>
+        <v>1.366716926636766</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.538399236668653</v>
+        <v>1.824153035351339</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147">
-        <v>1.417532942664971</v>
+        <v>1.664555810123203</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148">
-        <v>1.336517923654925</v>
+        <v>1.506069349512791</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.351729247280211</v>
+        <v>1.503384663560669</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.401567434388715</v>
+        <v>1.2870240218054</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.53815705277783</v>
+        <v>1.187022071347466</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.377579575668893</v>
+        <v>1.366845773049179</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.355747282128481</v>
+        <v>1.512173186437863</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.551965886752947</v>
+        <v>1.358764598779892</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.745137337062987</v>
+        <v>1.275049131006362</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.654011004689809</v>
+        <v>1.547807809943559</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.238795884770217</v>
+        <v>1.517494129094311</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.481176405939874</v>
+        <v>1.369252147049517</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.744890630794788</v>
+        <v>1.563721733241203</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.406283350012006</v>
+        <v>1.644263036826935</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.298750936679817</v>
+        <v>1.52570356968056</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.452612694794395</v>
+        <v>1.640766522784153</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.382195559077922</v>
+        <v>1.497176460552416</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.716013248942318</v>
+        <v>1.671391682786409</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.693986078848653</v>
+        <v>1.518740102868209</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.660931082375245</v>
+        <v>1.742174995167793</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.689429177530637</v>
+        <v>1.596310411670247</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1.576701506795448</v>
+        <v>1.510975557393738</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.513953855548654</v>
+        <v>1.494053744984787</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.455729795100434</v>
+        <v>1.297831040105518</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.542815930072988</v>
+        <v>1.658248445927188</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.222074647663806</v>
+        <v>1.588073605376037</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.435761446985891</v>
+        <v>1.399135249414019</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.5768145418911</v>
+        <v>1.612927977635458</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.689605219684846</v>
+        <v>1.438050953196671</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.210114866682859</v>
+        <v>1.602879833415672</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.338808272975947</v>
+        <v>1.440067013252686</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.549204284840011</v>
+        <v>1.5901115512118</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.520120863006547</v>
+        <v>1.763139817007115</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.29757764674775</v>
+        <v>1.589605351968213</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.497377394498811</v>
+        <v>1.325428199733411</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.645166163725889</v>
+        <v>1.739677011650341</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.350720838143357</v>
+        <v>1.632086191967323</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.427098690654382</v>
+        <v>1.600633000216204</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.509050940672032</v>
+        <v>1.622807256306749</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.830580782438734</v>
+        <v>1.566591114728336</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.560561339779168</v>
+        <v>1.330793308162542</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.790628047199272</v>
+        <v>1.484555690325054</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.582266058699931</v>
+        <v>1.34911126663103</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.499586532185839</v>
+        <v>1.526288922591956</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.860897398658035</v>
+        <v>1.418536420203141</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.727402223386973</v>
+        <v>1.331453143716315</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.294835598164417</v>
+        <v>1.482763320924183</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.553525877731341</v>
+        <v>1.559176486587416</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.769318499306079</v>
+        <v>1.319106694301603</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.633136534034419</v>
+        <v>1.071768165460393</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.618794842203347</v>
+        <v>1.40262489656902</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.279309688327952</v>
+        <v>1.609134427100671</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.496211991398912</v>
+        <v>1.620048269065191</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.522285981981397</v>
+        <v>1.676761325077903</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.305285587027736</v>
+        <v>1.333286182735556</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.869021088539244</v>
+        <v>1.772245586731636</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.592444991882015</v>
+        <v>1.634341011525892</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.520702139699562</v>
+        <v>1.470636480067972</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.450504922963154</v>
+        <v>1.417173500409551</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.503789010578008</v>
+        <v>1.569458392592108</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.576840207932307</v>
+        <v>1.4559171396151</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.422606534117911</v>
+        <v>1.356509866386126</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.495813565853576</v>
+        <v>1.297836471078625</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.431734836660165</v>
+        <v>1.73185180374692</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.670592999786869</v>
+        <v>1.669719694172984</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.295556940052548</v>
+        <v>1.572411284460828</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.760319486827477</v>
+        <v>1.627243032502391</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.442242248937154</v>
+        <v>1.343734090486484</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.138261683793868</v>
+        <v>1.197056226906146</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.507996903664344</v>
+        <v>1.572716367826536</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.458334589624226</v>
+        <v>1.580690956709261</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.686927109421234</v>
+        <v>1.616144284431321</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.526637554225106</v>
+        <v>1.576924200384388</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.568069754034358</v>
+        <v>1.406415134325599</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.496909136363406</v>
+        <v>1.657952263723976</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.598601756293155</v>
+        <v>1.357098622548331</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.457783340492891</v>
+        <v>1.325865497776832</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.678510499284319</v>
+        <v>1.575418204223731</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.334616937801339</v>
+        <v>1.531368751706196</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.447108371167003</v>
+        <v>1.668954743167874</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.346618227864814</v>
+        <v>1.613843539567724</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.498313618323031</v>
+        <v>1.369367580267329</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.518916937875827</v>
+        <v>1.332481304384771</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.67293789737325</v>
+        <v>1.797798178103425</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.436846462120404</v>
+        <v>1.50646752422106</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.615160934869008</v>
+        <v>1.255720089493572</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.401628215865377</v>
+        <v>1.49332329333613</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.5289268958481</v>
+        <v>1.644886678696791</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.680489565839646</v>
+        <v>1.341115311597397</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.223264219617859</v>
+        <v>1.530191830233656</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.461146008442056</v>
+        <v>1.392492888923791</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.448002206452975</v>
+        <v>1.623671565263378</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.322544407724065</v>
+        <v>1.517236711679167</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.701456984973086</v>
+        <v>1.578901994631101</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.306943125225731</v>
+        <v>1.393583944672923</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.67901090261619</v>
+        <v>1.606799865756797</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.912237783011825</v>
+        <v>1.208533228338794</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.52301061740614</v>
+        <v>1.602913491897421</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.475389087418414</v>
+        <v>1.254187124917027</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.562091227480911</v>
+        <v>1.601877627398598</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.387816007159131</v>
+        <v>1.537986623948068</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.270329672314914</v>
+        <v>1.60427584286364</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.489480740333501</v>
+        <v>1.567788855215403</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>1</v>
       </c>
       <c r="F250">
-        <v>1.422540051361904</v>
+        <v>1.522221851185652</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.585685693630432</v>
+        <v>1.732790999910112</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.506528742575987</v>
+        <v>1.740192952751141</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.445847250996315</v>
+        <v>1.640054537037109</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.418189513220453</v>
+        <v>1.565197229931553</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.479431045272148</v>
+        <v>1.615136110598169</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.581998284798555</v>
+        <v>1.450986686823952</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.571481172563977</v>
+        <v>1.451639050429522</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
+    <t>dog/dog037.jpg</t>
   </si>
   <si>
     <t>flower/flower043.jpg</t>
   </si>
   <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
     <t>house/house046.jpg</t>
   </si>
   <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
     <t>dog/dog041.jpg</t>
   </si>
   <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
   </si>
   <si>
     <t>face/face059.jpg</t>
   </si>
   <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
   </si>
   <si>
     <t>dog/dog075.jpg</t>
   </si>
   <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
   </si>
   <si>
     <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.581085913520315</v>
+        <v>1.566770710809746</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.268236090007823</v>
+        <v>1.393915698755814</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.517405824802064</v>
+        <v>1.748062867722092</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.322502114527419</v>
+        <v>1.378069423666982</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.679912461678687</v>
+        <v>1.322472553667239</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.399799618621219</v>
+        <v>1.455835114090635</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.636197905585489</v>
+        <v>1.798265205764975</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.354844544836588</v>
+        <v>1.32773666228779</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.298457360810394</v>
+        <v>1.789236215466562</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.444000180911699</v>
+        <v>1.663612382355402</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.430586190413083</v>
+        <v>1.472162771814363</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.49316874160322</v>
+        <v>1.290830273307995</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.550868710145495</v>
+        <v>1.736104998360789</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.453011694172732</v>
+        <v>1.562312627886182</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.592624476860129</v>
+        <v>1.447834490889252</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.297224092036954</v>
+        <v>1.387242856846429</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.486802780805523</v>
+        <v>1.488704942108184</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.370802466883937</v>
+        <v>1.371152585904157</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.500406366786215</v>
+        <v>1.504240086071297</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.531777391301492</v>
+        <v>1.296275253008915</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.514366852085971</v>
+        <v>1.625114059091105</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.582157213563456</v>
+        <v>1.575897115129208</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.465825447449713</v>
+        <v>1.642396185790543</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.478677145661346</v>
+        <v>1.322093977670096</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.770319700967653</v>
+        <v>1.492959820908544</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.462758638557084</v>
+        <v>1.406139609990653</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.56747916096084</v>
+        <v>1.532284841940575</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.590147272479623</v>
+        <v>1.763945499233833</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.616921902319756</v>
+        <v>1.275746013742399</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.342063540987037</v>
+        <v>1.502359999256055</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.396644148149928</v>
+        <v>1.621151816127602</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.630412727075953</v>
+        <v>1.615114081246788</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.53535283736442</v>
+        <v>1.50624562264253</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.395229997508753</v>
+        <v>1.636578901183572</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.887768732197289</v>
+        <v>1.545378206163698</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.527595563376998</v>
+        <v>1.4831323411575</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.616563931342482</v>
+        <v>1.794903977401976</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.762032944823525</v>
+        <v>1.660618106260068</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.564728906278046</v>
+        <v>1.674978703503305</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.73904004365134</v>
+        <v>1.727754643376084</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.668383803911953</v>
+        <v>1.504601674196167</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.128684313870856</v>
+        <v>1.402855001460127</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.429771590097336</v>
+        <v>1.300664212800557</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.283374382804415</v>
+        <v>1.510847163692924</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.228918673158111</v>
+        <v>1.33868788865291</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.476266373522698</v>
+        <v>1.305480124885503</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.567811054804823</v>
+        <v>1.516365403584818</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.591496210750096</v>
+        <v>1.699879524847531</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.592518170829031</v>
+        <v>1.47186607127209</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.365801821060383</v>
+        <v>1.395258437565839</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.35679049895191</v>
+        <v>1.681656067841073</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.48356571328013</v>
+        <v>1.536375759526096</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.458482993691173</v>
+        <v>1.525413058972974</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.549171615695541</v>
+        <v>1.583561030445714</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.548636985604637</v>
+        <v>1.534994516624294</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.488330564351203</v>
+        <v>1.444707253704459</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.542402467580109</v>
+        <v>1.246109460161489</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.557996775430237</v>
+        <v>1.491662446314397</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.481183664948472</v>
+        <v>1.562006763845442</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.493506911811613</v>
+        <v>1.458525413892012</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.698448299853065</v>
+        <v>1.478489460350616</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.493091331555044</v>
+        <v>1.936597431451345</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.391379015750898</v>
+        <v>1.639414541895251</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.405493756423261</v>
+        <v>1.783238337821337</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.446758027473812</v>
+        <v>1.532648320401397</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>1.466091613497676</v>
+        <v>1.46244622051359</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.521480486772687</v>
+        <v>1.296446291092669</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.351139432461239</v>
+        <v>1.597756742619326</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.746888033839361</v>
+        <v>1.809604305743541</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.217267926246564</v>
+        <v>1.653410935234126</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.535016838371355</v>
+        <v>1.326412870934379</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.533895065543771</v>
+        <v>1.367871362484756</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.618036384109423</v>
+        <v>1.388180237560936</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.55912850695119</v>
+        <v>1.771002639942033</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.675025218284132</v>
+        <v>1.586948328540391</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.121021806374862</v>
+        <v>1.442786028747272</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1.427610829854864</v>
+        <v>1.832896749920891</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.584682826394417</v>
+        <v>1.647085952335276</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.522716717149161</v>
+        <v>1.748389310803632</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.235588619355058</v>
+        <v>1.428749130592504</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.579981357344497</v>
+        <v>1.570083813461305</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.625541695527923</v>
+        <v>1.521018866330179</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.357190430405761</v>
+        <v>1.297858391342424</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.267256603461758</v>
+        <v>1.447395146758976</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.826836785992818</v>
+        <v>1.650885922318038</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.518061240919251</v>
+        <v>1.651986132173052</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.487512277549176</v>
+        <v>1.321881641439764</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.726680549161046</v>
+        <v>1.511578807935737</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.671647480108662</v>
+        <v>1.275585252129031</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.204589680915793</v>
+        <v>1.334670752386308</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.444815827449229</v>
+        <v>1.621983062196092</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.437123133687876</v>
+        <v>1.481975873657073</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.62732043384878</v>
+        <v>1.234417579633985</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.5052032662488</v>
+        <v>1.62266533972188</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.542928640779615</v>
+        <v>1.540574147529349</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.352465690522388</v>
+        <v>1.375781093092312</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.541118835787537</v>
+        <v>1.634110871414915</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.581921623567645</v>
+        <v>1.409803807329</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.947518296972084</v>
+        <v>1.40153217720289</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.711338859362533</v>
+        <v>1.616627392391652</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.619994119982544</v>
+        <v>1.689968925573842</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.622406539437633</v>
+        <v>1.515854704934302</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.444230720717688</v>
+        <v>1.628804330666948</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.551937816598544</v>
+        <v>1.320829516676075</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.599240381793006</v>
+        <v>1.533789245050161</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.39850539675687</v>
+        <v>1.778964325995562</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1.389937194864413</v>
+        <v>1.44535784103459</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.251026259911673</v>
+        <v>1.427925960001313</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.47427567654026</v>
+        <v>1.553164013833754</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.383364416648627</v>
+        <v>1.392514493419927</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.351169991805914</v>
+        <v>1.353959130661549</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.764847931962692</v>
+        <v>1.455106969890736</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.354513469367695</v>
+        <v>1.800247223781011</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.494029655165683</v>
+        <v>1.554224646108122</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.396969612899257</v>
+        <v>1.870454729263225</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.281808180243373</v>
+        <v>1.259555516885411</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.353342951161195</v>
+        <v>1.403565441496572</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.546027068089064</v>
+        <v>1.468065102852403</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.341716245841155</v>
+        <v>1.274058409998432</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.537168029827754</v>
+        <v>1.754167202979852</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.354061856534051</v>
+        <v>1.473418367543454</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.581212263516758</v>
+        <v>1.538956803009224</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.704878990773876</v>
+        <v>1.598477839994474</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.786483823520435</v>
+        <v>1.483314403000106</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.442939157822877</v>
+        <v>1.684413157812392</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.104928558846402</v>
+        <v>1.682226539265354</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.38708565281554</v>
+        <v>1.661780294382448</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.204521037425698</v>
+        <v>1.664252704962409</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.564256859379649</v>
+        <v>1.511138030587932</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.731050009410497</v>
+        <v>1.598420377660376</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.50110796984343</v>
+        <v>1.490296902275477</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.320058340266449</v>
+        <v>1.540093743195037</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.052478430289326</v>
+        <v>1.727680669398458</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.604508109406467</v>
+        <v>1.417109083451892</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.536196811422117</v>
+        <v>1.603638562180592</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.541138747231841</v>
+        <v>1.510732914523212</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.595817491897516</v>
+        <v>1.578747674913339</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.683492809366434</v>
+        <v>1.415242734429878</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.398176678594593</v>
+        <v>1.785669773429874</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.67710533670442</v>
+        <v>1.494737893860717</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.677607912839758</v>
+        <v>1.637221632482592</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.58081993030769</v>
+        <v>1.491781161885328</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.596565708824228</v>
+        <v>1.369646640114339</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.366716926636766</v>
+        <v>1.43988637624477</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.824153035351339</v>
+        <v>1.538314456869138</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>1.664555810123203</v>
+        <v>1.368292401727581</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4123,10 +4123,10 @@
         <v>2</v>
       </c>
       <c r="E148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>1.506069349512791</v>
+        <v>1.579262139777265</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.503384663560669</v>
+        <v>1.594465554383219</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.2870240218054</v>
+        <v>1.495661581277675</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.187022071347466</v>
+        <v>1.149749669125819</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.366845773049179</v>
+        <v>1.494965369774105</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.512173186437863</v>
+        <v>1.268250604172835</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.358764598779892</v>
+        <v>1.389217971523151</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.275049131006362</v>
+        <v>1.490673487542165</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.547807809943559</v>
+        <v>1.277285354901859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.517494129094311</v>
+        <v>1.539720646514323</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.369252147049517</v>
+        <v>1.638558371011831</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.563721733241203</v>
+        <v>1.653547950678127</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.644263036826935</v>
+        <v>1.465090585749445</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.52570356968056</v>
+        <v>1.744285188883752</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.640766522784153</v>
+        <v>1.295892746256937</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.497176460552416</v>
+        <v>1.674849398617635</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.671391682786409</v>
+        <v>1.452717511533306</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.518740102868209</v>
+        <v>1.595307685723061</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.742174995167793</v>
+        <v>1.410364357582572</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.596310411670247</v>
+        <v>1.593104066539342</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.510975557393738</v>
+        <v>1.261524914545374</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.494053744984787</v>
+        <v>1.388006305795826</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.297831040105518</v>
+        <v>1.437828161674141</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.658248445927188</v>
+        <v>1.170163722612025</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.588073605376037</v>
+        <v>1.681220462824967</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.399135249414019</v>
+        <v>1.553006732124492</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.612927977635458</v>
+        <v>1.404479244890913</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.438050953196671</v>
+        <v>1.358001367017584</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.602879833415672</v>
+        <v>1.256175675594942</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.440067013252686</v>
+        <v>1.4147877315707</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.5901115512118</v>
+        <v>1.300834295880848</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.763139817007115</v>
+        <v>1.456169519131526</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.589605351968213</v>
+        <v>1.30953768855415</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.325428199733411</v>
+        <v>1.399794111308677</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.739677011650341</v>
+        <v>1.740675161028237</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.632086191967323</v>
+        <v>1.581167999544448</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.600633000216204</v>
+        <v>1.552120518504484</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.622807256306749</v>
+        <v>1.572854368089531</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.566591114728336</v>
+        <v>1.306152618380732</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.330793308162542</v>
+        <v>1.615606415071771</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.484555690325054</v>
+        <v>1.484237061785686</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.34911126663103</v>
+        <v>1.603989062433277</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.526288922591956</v>
+        <v>1.774081771245203</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.418536420203141</v>
+        <v>1.492417999368474</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.331453143716315</v>
+        <v>1.493446434171965</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.482763320924183</v>
+        <v>1.547791510207418</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.559176486587416</v>
+        <v>1.315486550704111</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.319106694301603</v>
+        <v>1.663177316299879</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.071768165460393</v>
+        <v>1.415843339375919</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.40262489656902</v>
+        <v>1.389221758147174</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.609134427100671</v>
+        <v>1.514007716158656</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.620048269065191</v>
+        <v>1.512441789509749</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.676761325077903</v>
+        <v>1.489303149752756</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.333286182735556</v>
+        <v>1.474368169611222</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.772245586731636</v>
+        <v>1.579912953384182</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.634341011525892</v>
+        <v>1.644739243107241</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.470636480067972</v>
+        <v>1.511027381278397</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.417173500409551</v>
+        <v>1.376086017574633</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.569458392592108</v>
+        <v>1.517598283629655</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.4559171396151</v>
+        <v>1.548554202019105</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.356509866386126</v>
+        <v>1.478947720630349</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.297836471078625</v>
+        <v>1.490597324881281</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.73185180374692</v>
+        <v>1.368810597468329</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.669719694172984</v>
+        <v>1.645673763751656</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.572411284460828</v>
+        <v>1.717969031223715</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213">
-        <v>1.627243032502391</v>
+        <v>1.713928090586916</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.343734090486484</v>
+        <v>1.589981828904927</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.197056226906146</v>
+        <v>1.5110653888817</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.572716367826536</v>
+        <v>1.547166987569572</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.580690956709261</v>
+        <v>1.418753133828736</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.616144284431321</v>
+        <v>1.484315845655399</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.576924200384388</v>
+        <v>1.510863315145705</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.406415134325599</v>
+        <v>1.533437771012997</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.657952263723976</v>
+        <v>1.689956983156386</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.357098622548331</v>
+        <v>1.703857799674069</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.325865497776832</v>
+        <v>1.641635330548797</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.575418204223731</v>
+        <v>1.344943787464278</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.531368751706196</v>
+        <v>1.615480141655355</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.668954743167874</v>
+        <v>1.541351188266758</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.613843539567724</v>
+        <v>1.641621059215708</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.369367580267329</v>
+        <v>1.580094968005604</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.332481304384771</v>
+        <v>1.695769925055689</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.797798178103425</v>
+        <v>1.561297529343917</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.50646752422106</v>
+        <v>1.587120676178491</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.255720089493572</v>
+        <v>1.455778699564528</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.49332329333613</v>
+        <v>1.402446159061008</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.644886678696791</v>
+        <v>1.583553748268441</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.341115311597397</v>
+        <v>1.338935947627372</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.530191830233656</v>
+        <v>1.480762906864719</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.392492888923791</v>
+        <v>1.536341473575873</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.623671565263378</v>
+        <v>1.312520067464525</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.517236711679167</v>
+        <v>1.288421164993643</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>1.578901994631101</v>
+        <v>1.587071272883734</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.393583944672923</v>
+        <v>1.447265531376208</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.606799865756797</v>
+        <v>1.499752934870715</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.208533228338794</v>
+        <v>1.482325328659557</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.602913491897421</v>
+        <v>1.485546635368638</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.254187124917027</v>
+        <v>1.664264671907665</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.601877627398598</v>
+        <v>1.8956885694361</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.537986623948068</v>
+        <v>1.793975821757433</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.60427584286364</v>
+        <v>1.270739237563527</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.567788855215403</v>
+        <v>1.354481219454275</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
-        <v>1.522221851185652</v>
+        <v>1.497209117350976</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.732790999910112</v>
+        <v>1.442860779881819</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.740192952751141</v>
+        <v>1.546805400326849</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.640054537037109</v>
+        <v>1.324911316540634</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.565197229931553</v>
+        <v>1.708418291055697</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.615136110598169</v>
+        <v>1.427110637889285</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.450986686823952</v>
+        <v>1.654279514765926</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.451639050429522</v>
+        <v>1.524351131257092</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
   </si>
   <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>house/house054.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
   </si>
   <si>
     <t>house/house060.jpg</t>
   </si>
   <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>dog/dog082.jpg</t>
   </si>
   <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
     <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.566770710809746</v>
+        <v>1.650327991282051</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.393915698755814</v>
+        <v>1.377024679927452</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.748062867722092</v>
+        <v>1.501903906903396</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.378069423666982</v>
+        <v>1.470462411334138</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.322472553667239</v>
+        <v>1.451226549682559</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.455835114090635</v>
+        <v>1.58374466916853</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.798265205764975</v>
+        <v>1.255994192314753</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.32773666228779</v>
+        <v>1.762205291357547</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.789236215466562</v>
+        <v>1.654821689963965</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.663612382355402</v>
+        <v>1.501502199345783</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.472162771814363</v>
+        <v>1.574506426500559</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.290830273307995</v>
+        <v>1.554812542082522</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.736104998360789</v>
+        <v>1.503591741180028</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.562312627886182</v>
+        <v>1.398120655475351</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.447834490889252</v>
+        <v>1.373407339455637</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.387242856846429</v>
+        <v>1.458743012758778</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.488704942108184</v>
+        <v>1.682635321757151</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.371152585904157</v>
+        <v>1.512462463873532</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.504240086071297</v>
+        <v>1.519331619375932</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.296275253008915</v>
+        <v>1.684518812679945</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.625114059091105</v>
+        <v>1.833250136233017</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.575897115129208</v>
+        <v>1.65696032252664</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1.642396185790543</v>
+        <v>1.561323121189363</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.322093977670096</v>
+        <v>1.210775344927983</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.492959820908544</v>
+        <v>1.334447464842815</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.406139609990653</v>
+        <v>1.317434972035643</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.532284841940575</v>
+        <v>1.717052693368516</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.763945499233833</v>
+        <v>1.234727804209363</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.275746013742399</v>
+        <v>1.280739664794809</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1.502359999256055</v>
+        <v>1.481175594217867</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.621151816127602</v>
+        <v>1.548849947166221</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.615114081246788</v>
+        <v>1.498485879680495</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.50624562264253</v>
+        <v>1.772340179889224</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.636578901183572</v>
+        <v>1.541607526222766</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>1.545378206163698</v>
+        <v>1.751032788972003</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.4831323411575</v>
+        <v>1.417902988463031</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.794903977401976</v>
+        <v>1.232491457528308</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.660618106260068</v>
+        <v>1.573948245767941</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.674978703503305</v>
+        <v>1.725397522382981</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.727754643376084</v>
+        <v>1.734738707315528</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.504601674196167</v>
+        <v>1.35444090714746</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.402855001460127</v>
+        <v>1.394631283389382</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.300664212800557</v>
+        <v>1.430831201407245</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.510847163692924</v>
+        <v>1.36669543077275</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.33868788865291</v>
+        <v>1.662287260834837</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.305480124885503</v>
+        <v>1.770139108943878</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.516365403584818</v>
+        <v>1.73273838030838</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.699879524847531</v>
+        <v>1.472758238654516</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.47186607127209</v>
+        <v>1.496469060241571</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.395258437565839</v>
+        <v>1.27496868562704</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.681656067841073</v>
+        <v>1.684112993988532</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.536375759526096</v>
+        <v>1.67588642364772</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.525413058972974</v>
+        <v>1.478445553664703</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.583561030445714</v>
+        <v>1.539571738235886</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.534994516624294</v>
+        <v>1.457722321952453</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.444707253704459</v>
+        <v>1.259721570824504</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.246109460161489</v>
+        <v>1.577136081129003</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.491662446314397</v>
+        <v>1.436495653586676</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.562006763845442</v>
+        <v>1.445499037489406</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.458525413892012</v>
+        <v>1.521255509252228</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.478489460350616</v>
+        <v>1.326001182921374</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.936597431451345</v>
+        <v>1.319661134568444</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.639414541895251</v>
+        <v>1.598505089569404</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.783238337821337</v>
+        <v>1.631898544084734</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.532648320401397</v>
+        <v>1.63313467649519</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.46244622051359</v>
+        <v>1.73637889652808</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.296446291092669</v>
+        <v>1.62134763872605</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.597756742619326</v>
+        <v>1.654722430909678</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.809604305743541</v>
+        <v>1.441138446785726</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.653410935234126</v>
+        <v>1.343872362384867</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.326412870934379</v>
+        <v>1.513977600860377</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.367871362484756</v>
+        <v>1.358084201378139</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.388180237560936</v>
+        <v>1.74482961805027</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.771002639942033</v>
+        <v>1.68668949527693</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.586948328540391</v>
+        <v>1.464626567240301</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.442786028747272</v>
+        <v>1.534463141115933</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.832896749920891</v>
+        <v>1.521187817700035</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.647085952335276</v>
+        <v>1.528902449990162</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.748389310803632</v>
+        <v>1.592795519186199</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.428749130592504</v>
+        <v>1.603981988630414</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.570083813461305</v>
+        <v>1.47005336901502</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.521018866330179</v>
+        <v>1.547106406423201</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.297858391342424</v>
+        <v>1.305097615161507</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.447395146758976</v>
+        <v>1.11921381798163</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.650885922318038</v>
+        <v>1.460910850137767</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.651986132173052</v>
+        <v>1.450674001241955</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.321881641439764</v>
+        <v>1.458738574236977</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.511578807935737</v>
+        <v>1.586025866531924</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.275585252129031</v>
+        <v>1.63303750240045</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.334670752386308</v>
+        <v>1.316050573415406</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.621983062196092</v>
+        <v>1.561894227606375</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.481975873657073</v>
+        <v>1.546018490707437</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.234417579633985</v>
+        <v>1.545081117705285</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.62266533972188</v>
+        <v>1.485592092096028</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.540574147529349</v>
+        <v>1.436490494695371</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.375781093092312</v>
+        <v>1.568336768366354</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.634110871414915</v>
+        <v>1.790634395314244</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.409803807329</v>
+        <v>1.356529840069697</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.40153217720289</v>
+        <v>1.370370367680892</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.616627392391652</v>
+        <v>1.412453740571131</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.689968925573842</v>
+        <v>1.574810436363026</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.515854704934302</v>
+        <v>1.519114813261426</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.628804330666948</v>
+        <v>1.594127594984944</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.320829516676075</v>
+        <v>1.406551051001252</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.533789245050161</v>
+        <v>1.193721242672452</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.778964325995562</v>
+        <v>1.28938841636192</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.44535784103459</v>
+        <v>1.68546347546927</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.427925960001313</v>
+        <v>1.384639993084643</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.553164013833754</v>
+        <v>1.467147075650953</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.392514493419927</v>
+        <v>1.347856582266526</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>1.353959130661549</v>
+        <v>1.490585737328266</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.455106969890736</v>
+        <v>1.569648163558581</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.800247223781011</v>
+        <v>1.417023114842588</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.554224646108122</v>
+        <v>1.424364704866737</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.870454729263225</v>
+        <v>1.178777286657181</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.259555516885411</v>
+        <v>1.338142674883676</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.403565441496572</v>
+        <v>1.728041025701577</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.468065102852403</v>
+        <v>1.466726506789116</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.274058409998432</v>
+        <v>1.384630033587083</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.754167202979852</v>
+        <v>1.489265258398953</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.473418367543454</v>
+        <v>1.473291033628089</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.538956803009224</v>
+        <v>1.677353595216741</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.598477839994474</v>
+        <v>1.559022999341152</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.483314403000106</v>
+        <v>1.640055142916207</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.684413157812392</v>
+        <v>1.631078955891838</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.682226539265354</v>
+        <v>1.517308700437738</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.661780294382448</v>
+        <v>1.465161882819998</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.664252704962409</v>
+        <v>1.532263046929399</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.511138030587932</v>
+        <v>1.556262929972431</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.598420377660376</v>
+        <v>1.528294867832215</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.490296902275477</v>
+        <v>1.513412384356695</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.540093743195037</v>
+        <v>1.398753928318029</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.727680669398458</v>
+        <v>1.251337577138591</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.417109083451892</v>
+        <v>1.561713954448049</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.603638562180592</v>
+        <v>1.812721809773069</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.510732914523212</v>
+        <v>1.621770743583993</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.578747674913339</v>
+        <v>1.341383378528881</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.415242734429878</v>
+        <v>1.60418036025897</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.785669773429874</v>
+        <v>1.516980666666039</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.494737893860717</v>
+        <v>1.483741898504134</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.637221632482592</v>
+        <v>1.621880757295799</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.491781161885328</v>
+        <v>1.481610272959359</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.369646640114339</v>
+        <v>1.403616465202148</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.43988637624477</v>
+        <v>1.452191211976078</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.538314456869138</v>
+        <v>1.725835334011552</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.368292401727581</v>
+        <v>1.728755105515339</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.579262139777265</v>
+        <v>1.393108133450228</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.594465554383219</v>
+        <v>1.420284049016499</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.495661581277675</v>
+        <v>1.272088067314471</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.149749669125819</v>
+        <v>1.427695787379884</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.494965369774105</v>
+        <v>1.600400100292741</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.268250604172835</v>
+        <v>1.576000682348056</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.389217971523151</v>
+        <v>1.558911148076751</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.490673487542165</v>
+        <v>1.401964471450833</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.277285354901859</v>
+        <v>1.546396911171595</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.539720646514323</v>
+        <v>1.514397812790164</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.638558371011831</v>
+        <v>1.571312997605424</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.653547950678127</v>
+        <v>1.503711190915323</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.465090585749445</v>
+        <v>1.6162406702597</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1.744285188883752</v>
+        <v>1.562737588782653</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.295892746256937</v>
+        <v>1.595035694244668</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.674849398617635</v>
+        <v>1.579787066432084</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
-        <v>1.452717511533306</v>
+        <v>1.507213031840487</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.595307685723061</v>
+        <v>1.641113977449649</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.410364357582572</v>
+        <v>1.543300759518914</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.593104066539342</v>
+        <v>1.529986621001283</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.261524914545374</v>
+        <v>1.714851382850634</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.388006305795826</v>
+        <v>1.392818010363734</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.437828161674141</v>
+        <v>1.30442499556326</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.170163722612025</v>
+        <v>1.399878455980002</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.681220462824967</v>
+        <v>1.321999546165039</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.553006732124492</v>
+        <v>1.423577057059235</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.404479244890913</v>
+        <v>1.485563689254856</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.358001367017584</v>
+        <v>1.562261432434836</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.256175675594942</v>
+        <v>1.797921065933608</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.4147877315707</v>
+        <v>1.570133585871783</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.300834295880848</v>
+        <v>1.438228819201901</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.456169519131526</v>
+        <v>1.498968253663753</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.30953768855415</v>
+        <v>1.485501830631057</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>1.399794111308677</v>
+        <v>1.378405366313501</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.740675161028237</v>
+        <v>1.547139274291355</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.581167999544448</v>
+        <v>1.750426886619028</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.552120518504484</v>
+        <v>1.386285617494168</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.572854368089531</v>
+        <v>1.437438487455803</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.306152618380732</v>
+        <v>1.412664473812725</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.615606415071771</v>
+        <v>1.446507095652903</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.484237061785686</v>
+        <v>1.735570038931767</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.603989062433277</v>
+        <v>1.461730383970623</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.774081771245203</v>
+        <v>1.662056073042174</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.492417999368474</v>
+        <v>1.346253996649588</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.493446434171965</v>
+        <v>1.489391465050118</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.547791510207418</v>
+        <v>1.358480171422805</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.315486550704111</v>
+        <v>1.670909860161734</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.663177316299879</v>
+        <v>1.694395711060529</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.415843339375919</v>
+        <v>1.485140606996113</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.389221758147174</v>
+        <v>1.646739246874679</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.514007716158656</v>
+        <v>1.484285213054251</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.512441789509749</v>
+        <v>1.518728469661869</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.489303149752756</v>
+        <v>1.726631222722442</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.474368169611222</v>
+        <v>1.605580619587522</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.579912953384182</v>
+        <v>1.459998896596586</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.644739243107241</v>
+        <v>1.555287971226304</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.511027381278397</v>
+        <v>1.567477034945007</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.376086017574633</v>
+        <v>1.621132838402894</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.517598283629655</v>
+        <v>1.41287413426215</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.548554202019105</v>
+        <v>1.679725412555227</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.478947720630349</v>
+        <v>1.655712679426935</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.490597324881281</v>
+        <v>1.428405240818405</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.368810597468329</v>
+        <v>1.495513706604836</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.645673763751656</v>
+        <v>1.40108293291724</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.717969031223715</v>
+        <v>1.416284630485922</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.713928090586916</v>
+        <v>1.451774891281102</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.589981828904927</v>
+        <v>1.412215891385378</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.5110653888817</v>
+        <v>1.358157713346158</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.547166987569572</v>
+        <v>1.693826710866495</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.418753133828736</v>
+        <v>1.483750778067485</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.484315845655399</v>
+        <v>1.351107178711391</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.510863315145705</v>
+        <v>1.674856921134621</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.533437771012997</v>
+        <v>1.756151711836036</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.689956983156386</v>
+        <v>1.397513464923178</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.703857799674069</v>
+        <v>1.539767779174972</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.641635330548797</v>
+        <v>1.3379691259047</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.344943787464278</v>
+        <v>1.505291954285186</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.615480141655355</v>
+        <v>1.481124956773431</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.541351188266758</v>
+        <v>1.436201193193513</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.641621059215708</v>
+        <v>1.471232349541254</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.580094968005604</v>
+        <v>1.583560467836156</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.695769925055689</v>
+        <v>1.351106651935909</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.561297529343917</v>
+        <v>1.348418346518593</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.587120676178491</v>
+        <v>1.767890393090653</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.455778699564528</v>
+        <v>1.444085367834129</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.402446159061008</v>
+        <v>1.534613559802886</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.583553748268441</v>
+        <v>1.544676905242161</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.338935947627372</v>
+        <v>1.481913748583477</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.480762906864719</v>
+        <v>1.757303695846492</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.536341473575873</v>
+        <v>1.781559391576284</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.312520067464525</v>
+        <v>1.644046262722252</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.288421164993643</v>
+        <v>1.70601595133635</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.587071272883734</v>
+        <v>1.497403029708053</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.447265531376208</v>
+        <v>1.489050845918557</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.499752934870715</v>
+        <v>1.48991223485143</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.482325328659557</v>
+        <v>1.540417244183694</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
-        <v>1.485546635368638</v>
+        <v>1.616252855451488</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.664264671907665</v>
+        <v>1.53344827194712</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.8956885694361</v>
+        <v>1.272400163794707</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.793975821757433</v>
+        <v>1.357812167924113</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.270739237563527</v>
+        <v>1.341472411116662</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.354481219454275</v>
+        <v>1.527751824483443</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.497209117350976</v>
+        <v>1.365587600168762</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.442860779881819</v>
+        <v>1.721986501827108</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.546805400326849</v>
+        <v>1.565223573756395</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.324911316540634</v>
+        <v>1.612178462502373</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.708418291055697</v>
+        <v>1.409748479121135</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.427110637889285</v>
+        <v>1.689356910395173</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.654279514765926</v>
+        <v>1.480066289145452</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.524351131257092</v>
+        <v>1.341980064113404</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>house</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
   </si>
   <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>flower/flower059.jpg</t>
   </si>
   <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
     <t>dog/dog051.jpg</t>
   </si>
   <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
   </si>
   <si>
     <t>face/face068.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
     <t>face/face086.jpg</t>
   </si>
   <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
   </si>
   <si>
     <t>face/face089.jpg</t>
   </si>
   <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
   </si>
   <si>
     <t>face/face081.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
     <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.650327991282051</v>
+        <v>1.48199353711225</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.377024679927452</v>
+        <v>1.362305520481607</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.501903906903396</v>
+        <v>1.622974090083671</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.470462411334138</v>
+        <v>1.459369858250807</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.451226549682559</v>
+        <v>1.361754209926259</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.58374466916853</v>
+        <v>1.635172413056386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.255994192314753</v>
+        <v>1.522525687967623</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.762205291357547</v>
+        <v>1.862385430031877</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.654821689963965</v>
+        <v>1.556082165446129</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.501502199345783</v>
+        <v>1.444005832675167</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.574506426500559</v>
+        <v>1.452311112145911</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.554812542082522</v>
+        <v>1.329980397676638</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.503591741180028</v>
+        <v>1.317564609468011</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.398120655475351</v>
+        <v>1.429166885147179</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.373407339455637</v>
+        <v>1.49615260668173</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.458743012758778</v>
+        <v>1.494594321827657</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.682635321757151</v>
+        <v>1.730198877248486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.512462463873532</v>
+        <v>1.552219463747789</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.519331619375932</v>
+        <v>1.727158510736145</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.684518812679945</v>
+        <v>1.349998380010374</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.833250136233017</v>
+        <v>1.527669151916428</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.65696032252664</v>
+        <v>1.72356539171145</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.561323121189363</v>
+        <v>1.6348758521861</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.210775344927983</v>
+        <v>1.720414091231052</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.334447464842815</v>
+        <v>1.775030415848091</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.317434972035643</v>
+        <v>1.615468826260388</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.717052693368516</v>
+        <v>1.449382623909857</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.234727804209363</v>
+        <v>1.41337909125166</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.280739664794809</v>
+        <v>1.505132983740267</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.481175594217867</v>
+        <v>1.495888138202376</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.548849947166221</v>
+        <v>1.309718292810861</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.498485879680495</v>
+        <v>1.531975216735809</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.772340179889224</v>
+        <v>1.095576199158332</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.541607526222766</v>
+        <v>1.618268169541002</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.751032788972003</v>
+        <v>1.525541196282347</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.417902988463031</v>
+        <v>1.293272584984419</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.232491457528308</v>
+        <v>1.543212548354168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.573948245767941</v>
+        <v>1.625099724566369</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.725397522382981</v>
+        <v>1.633116584226961</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.734738707315528</v>
+        <v>1.501158783689879</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.35444090714746</v>
+        <v>1.483666033470374</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.394631283389382</v>
+        <v>1.758784877943217</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.430831201407245</v>
+        <v>1.518545800295484</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>1.36669543077275</v>
+        <v>1.146619252972501</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.662287260834837</v>
+        <v>1.370005856273178</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.770139108943878</v>
+        <v>1.323770919073264</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.73273838030838</v>
+        <v>1.573882636573767</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.472758238654516</v>
+        <v>1.648268545410324</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.496469060241571</v>
+        <v>1.437526534969263</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.27496868562704</v>
+        <v>1.533575441586252</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.684112993988532</v>
+        <v>1.601690039172592</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.67588642364772</v>
+        <v>1.439103432641325</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.478445553664703</v>
+        <v>1.250975978156135</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.539571738235886</v>
+        <v>1.504181356704369</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.457722321952453</v>
+        <v>1.350797360769521</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.259721570824504</v>
+        <v>1.510199100128121</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.577136081129003</v>
+        <v>1.639521712071919</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.436495653586676</v>
+        <v>1.571422661226786</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.445499037489406</v>
+        <v>1.524719385277109</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.521255509252228</v>
+        <v>1.354261890380573</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.326001182921374</v>
+        <v>1.583940998954638</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.319661134568444</v>
+        <v>1.299095366193901</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.598505089569404</v>
+        <v>1.607358732420519</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.631898544084734</v>
+        <v>1.470262336209592</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.63313467649519</v>
+        <v>1.463049152858779</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.73637889652808</v>
+        <v>1.443817018540583</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.62134763872605</v>
+        <v>1.423893780473453</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.654722430909678</v>
+        <v>1.569192222620152</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.441138446785726</v>
+        <v>1.489587118389502</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.343872362384867</v>
+        <v>1.67014921785079</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.513977600860377</v>
+        <v>1.536329797816296</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.358084201378139</v>
+        <v>1.373625810438011</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.74482961805027</v>
+        <v>1.487519457095722</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.68668949527693</v>
+        <v>1.361732740120768</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.464626567240301</v>
+        <v>1.557614554472635</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.534463141115933</v>
+        <v>1.551871819940332</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.521187817700035</v>
+        <v>1.455935018615073</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.528902449990162</v>
+        <v>1.610001804714212</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.592795519186199</v>
+        <v>1.286524544712252</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.603981988630414</v>
+        <v>1.442786772079017</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.47005336901502</v>
+        <v>1.616078025791157</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.547106406423201</v>
+        <v>1.630293018389206</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.305097615161507</v>
+        <v>1.592397356116908</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.11921381798163</v>
+        <v>1.639334789089444</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.460910850137767</v>
+        <v>1.37117500650078</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.450674001241955</v>
+        <v>1.686747598730315</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.458738574236977</v>
+        <v>1.161882929364652</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.586025866531924</v>
+        <v>1.435153546996577</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.63303750240045</v>
+        <v>1.395203349746686</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.316050573415406</v>
+        <v>1.524096359547835</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.561894227606375</v>
+        <v>1.372065224992742</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.546018490707437</v>
+        <v>1.480047749195727</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.545081117705285</v>
+        <v>1.246006929433888</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.485592092096028</v>
+        <v>1.422341960041045</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.436490494695371</v>
+        <v>1.637599022710502</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.568336768366354</v>
+        <v>1.399527506770255</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.790634395314244</v>
+        <v>1.593230187469877</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.356529840069697</v>
+        <v>1.733125399923301</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.370370367680892</v>
+        <v>1.544241991676909</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.412453740571131</v>
+        <v>1.288655057926731</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.574810436363026</v>
+        <v>1.517647574550839</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.519114813261426</v>
+        <v>1.277260722893925</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.594127594984944</v>
+        <v>1.698638265551199</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.406551051001252</v>
+        <v>1.755603533579908</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.193721242672452</v>
+        <v>1.61375908676425</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.28938841636192</v>
+        <v>1.621315302296858</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.68546347546927</v>
+        <v>1.513737026757003</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.384639993084643</v>
+        <v>1.600737430005231</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.467147075650953</v>
+        <v>1.415266998120863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.347856582266526</v>
+        <v>1.464771063911884</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3403,10 +3403,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1.490585737328266</v>
+        <v>1.268255157060499</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.569648163558581</v>
+        <v>1.550487354549192</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.417023114842588</v>
+        <v>1.751132187097588</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.424364704866737</v>
+        <v>1.538574001639612</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.178777286657181</v>
+        <v>1.438920973085983</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.338142674883676</v>
+        <v>1.442551309650515</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.728041025701577</v>
+        <v>1.554644659857424</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.466726506789116</v>
+        <v>1.674869689758651</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.384630033587083</v>
+        <v>1.519325073548155</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.489265258398953</v>
+        <v>1.472243882389785</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.473291033628089</v>
+        <v>1.678598119044763</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.677353595216741</v>
+        <v>1.661775860151687</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.559022999341152</v>
+        <v>1.421234772474971</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.640055142916207</v>
+        <v>1.852940612739704</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.631078955891838</v>
+        <v>1.905594412950752</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.517308700437738</v>
+        <v>1.472472503809229</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.465161882819998</v>
+        <v>1.572028437388266</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.532263046929399</v>
+        <v>1.348918830390059</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.556262929972431</v>
+        <v>1.521226175957604</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.528294867832215</v>
+        <v>1.707752186827433</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.513412384356695</v>
+        <v>1.547009300636842</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.398753928318029</v>
+        <v>1.46371296708114</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.251337577138591</v>
+        <v>1.657566400299243</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.561713954448049</v>
+        <v>1.402041613915031</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.812721809773069</v>
+        <v>1.419232469948879</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.621770743583993</v>
+        <v>1.820664422969824</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.341383378528881</v>
+        <v>1.511164747944226</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.60418036025897</v>
+        <v>1.631662254124196</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.516980666666039</v>
+        <v>1.576208287331106</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.483741898504134</v>
+        <v>1.556831580511501</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.621880757295799</v>
+        <v>1.543505968299864</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.481610272959359</v>
+        <v>1.403637794838294</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.403616465202148</v>
+        <v>1.322146311577222</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.452191211976078</v>
+        <v>1.669951244914521</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.725835334011552</v>
+        <v>1.532104030865895</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.728755105515339</v>
+        <v>1.250646105995754</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.393108133450228</v>
+        <v>1.516450984384254</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.420284049016499</v>
+        <v>1.675014712533967</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.272088067314471</v>
+        <v>1.466362992089802</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.427695787379884</v>
+        <v>1.275703590869754</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.600400100292741</v>
+        <v>1.341325372714254</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.576000682348056</v>
+        <v>1.431645650977754</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.558911148076751</v>
+        <v>1.325584431447472</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.401964471450833</v>
+        <v>1.666006190053428</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.546396911171595</v>
+        <v>1.570034819152123</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.514397812790164</v>
+        <v>1.453833652888485</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.571312997605424</v>
+        <v>1.505860395344414</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.503711190915323</v>
+        <v>1.52867062339039</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.6162406702597</v>
+        <v>1.394620788880549</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.562737588782653</v>
+        <v>1.575071367397507</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.595035694244668</v>
+        <v>1.395202777093891</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.579787066432084</v>
+        <v>1.065048624149692</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4443,10 +4443,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>1.507213031840487</v>
+        <v>1.437144012424677</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.641113977449649</v>
+        <v>1.253308848871817</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.543300759518914</v>
+        <v>1.525542089733723</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.529986621001283</v>
+        <v>1.324173675125454</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.714851382850634</v>
+        <v>1.69986443381784</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.392818010363734</v>
+        <v>1.486301600044457</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.30442499556326</v>
+        <v>1.629770484788159</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.399878455980002</v>
+        <v>1.576857337140735</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.321999546165039</v>
+        <v>1.319621622357831</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.423577057059235</v>
+        <v>1.31311384262357</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.485563689254856</v>
+        <v>1.536081082147016</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.562261432434836</v>
+        <v>1.15934203006946</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.797921065933608</v>
+        <v>1.384861118131288</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.570133585871783</v>
+        <v>1.16617666541772</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.438228819201901</v>
+        <v>1.699960374647304</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.498968253663753</v>
+        <v>1.575667032210598</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
-        <v>1.485501830631057</v>
+        <v>1.410123206660837</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.378405366313501</v>
+        <v>1.576048227704126</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.547139274291355</v>
+        <v>1.580106576793763</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.750426886619028</v>
+        <v>1.406348147128718</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.386285617494168</v>
+        <v>1.779233278735454</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.437438487455803</v>
+        <v>1.500959767805867</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.412664473812725</v>
+        <v>1.638207552156072</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.446507095652903</v>
+        <v>1.306361318876755</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.735570038931767</v>
+        <v>1.31055833340718</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.461730383970623</v>
+        <v>1.645492646382391</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.662056073042174</v>
+        <v>1.43466547800592</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.346253996649588</v>
+        <v>1.49457767810091</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
-        <v>1.489391465050118</v>
+        <v>1.681975065010517</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.358480171422805</v>
+        <v>1.626872698365606</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.670909860161734</v>
+        <v>1.496238934245358</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.694395711060529</v>
+        <v>1.517094428107934</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.485140606996113</v>
+        <v>1.513927897326068</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.646739246874679</v>
+        <v>1.790997422860706</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.484285213054251</v>
+        <v>1.341781828162832</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.518728469661869</v>
+        <v>1.485120995857064</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>1.726631222722442</v>
+        <v>1.621511350889158</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.605580619587522</v>
+        <v>1.655956045114815</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.459998896596586</v>
+        <v>1.706848739908202</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.555287971226304</v>
+        <v>1.348694298183315</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.567477034945007</v>
+        <v>1.63679354389584</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.621132838402894</v>
+        <v>1.563818588299769</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.41287413426215</v>
+        <v>1.538527995224042</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.679725412555227</v>
+        <v>1.709264597103557</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.655712679426935</v>
+        <v>1.335475664341017</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.428405240818405</v>
+        <v>1.720221259380566</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.495513706604836</v>
+        <v>1.581949125707235</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.40108293291724</v>
+        <v>1.382570721722541</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.416284630485922</v>
+        <v>1.34438727590663</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.451774891281102</v>
+        <v>1.707287194139351</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.412215891385378</v>
+        <v>1.44886416180392</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.358157713346158</v>
+        <v>1.706744936380321</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.693826710866495</v>
+        <v>1.621610083200804</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.483750778067485</v>
+        <v>1.438299114589073</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.351107178711391</v>
+        <v>1.679826568306302</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.674856921134621</v>
+        <v>1.550614613365878</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.756151711836036</v>
+        <v>1.210877683385469</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.397513464923178</v>
+        <v>1.369623344931618</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.539767779174972</v>
+        <v>1.356091947867936</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.3379691259047</v>
+        <v>1.576657591963586</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.505291954285186</v>
+        <v>1.489246680410216</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.481124956773431</v>
+        <v>1.41840033333185</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>1</v>
       </c>
       <c r="F226">
-        <v>1.436201193193513</v>
+        <v>1.514212377396865</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.471232349541254</v>
+        <v>1.353715883478705</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.583560467836156</v>
+        <v>1.567298206417917</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.351106651935909</v>
+        <v>1.468377411664172</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.348418346518593</v>
+        <v>1.720762023144141</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.767890393090653</v>
+        <v>1.509400599225616</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.444085367834129</v>
+        <v>1.668508215774645</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.534613559802886</v>
+        <v>1.540201357938433</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.544676905242161</v>
+        <v>1.645367881590436</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.481913748583477</v>
+        <v>1.6485786775021</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.757303695846492</v>
+        <v>1.629165686020846</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.781559391576284</v>
+        <v>1.463010810664045</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F238">
-        <v>1.644046262722252</v>
+        <v>1.544089489765535</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.70601595133635</v>
+        <v>1.582157154556467</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.497403029708053</v>
+        <v>1.696648256763617</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.489050845918557</v>
+        <v>1.487120491914483</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.48991223485143</v>
+        <v>1.84911158444131</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.540417244183694</v>
+        <v>1.698122397249186</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.616252855451488</v>
+        <v>1.440641993442869</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.53344827194712</v>
+        <v>1.609179537803069</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.272400163794707</v>
+        <v>1.275683566315755</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.357812167924113</v>
+        <v>1.427153939472001</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.341472411116662</v>
+        <v>1.547533784013691</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.527751824483443</v>
+        <v>1.530462311419175</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.365587600168762</v>
+        <v>1.355802762393437</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.721986501827108</v>
+        <v>1.559131958637482</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.565223573756395</v>
+        <v>1.361360149551923</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.612178462502373</v>
+        <v>1.251056298744808</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.409748479121135</v>
+        <v>1.461817982240107</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.689356910395173</v>
+        <v>1.499649714625955</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.480066289145452</v>
+        <v>1.468010414766349</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.341980064113404</v>
+        <v>1.381550281162213</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
     <t>face/face046.jpg</t>
   </si>
   <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
   </si>
   <si>
     <t>house/house059.jpg</t>
   </si>
   <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
     <t>house/house051.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
   </si>
   <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>house/house064.jpg</t>
   </si>
   <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>dog/dog078.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
   </si>
   <si>
     <t>flower/flower097.jpg</t>
   </si>
   <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
+    <t>house/house082.jpg</t>
   </si>
   <si>
     <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.48199353711225</v>
+        <v>1.549733918974392</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.362305520481607</v>
+        <v>1.383285995522886</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.622974090083671</v>
+        <v>1.426606026882802</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.459369858250807</v>
+        <v>1.37397242038834</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.361754209926259</v>
+        <v>1.382547587306157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.635172413056386</v>
+        <v>1.432217164111851</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.522525687967623</v>
+        <v>1.488370310942713</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.862385430031877</v>
+        <v>1.848642408918511</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.556082165446129</v>
+        <v>1.377474488218178</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.444005832675167</v>
+        <v>1.704759270866784</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.452311112145911</v>
+        <v>1.462758988027848</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.329980397676638</v>
+        <v>1.420196055288595</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.317564609468011</v>
+        <v>1.442099174855928</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.429166885147179</v>
+        <v>1.41714106483572</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.49615260668173</v>
+        <v>1.469223394501763</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.494594321827657</v>
+        <v>1.509786716314371</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.730198877248486</v>
+        <v>1.331563316066195</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.552219463747789</v>
+        <v>1.546816879156482</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.727158510736145</v>
+        <v>1.576561558136776</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.349998380010374</v>
+        <v>1.321803586020534</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.527669151916428</v>
+        <v>1.55368013466838</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.72356539171145</v>
+        <v>1.764441510669384</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.6348758521861</v>
+        <v>1.545194063947397</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.720414091231052</v>
+        <v>1.285781367920983</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.775030415848091</v>
+        <v>1.418851678251753</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.615468826260388</v>
+        <v>1.255636497538589</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.449382623909857</v>
+        <v>1.280187414280488</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.41337909125166</v>
+        <v>1.518789704029079</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.505132983740267</v>
+        <v>1.576278757374898</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.495888138202376</v>
+        <v>1.416220789425878</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.309718292810861</v>
+        <v>1.558688145309081</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.531975216735809</v>
+        <v>1.704937586387832</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.095576199158332</v>
+        <v>1.722123512020389</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.618268169541002</v>
+        <v>1.447468310240826</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.525541196282347</v>
+        <v>1.499064957880804</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.293272584984419</v>
+        <v>1.259204564459758</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.543212548354168</v>
+        <v>1.370161043076053</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.625099724566369</v>
+        <v>1.639809008158863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.633116584226961</v>
+        <v>1.618073636633636</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.501158783689879</v>
+        <v>1.512003432351088</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.483666033470374</v>
+        <v>1.146423620762915</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.758784877943217</v>
+        <v>1.562199034812567</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.518545800295484</v>
+        <v>1.62081123594717</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.146619252972501</v>
+        <v>1.449477599699989</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.370005856273178</v>
+        <v>1.50144843779845</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.323770919073264</v>
+        <v>1.644547793377456</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.573882636573767</v>
+        <v>1.540287105590648</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.648268545410324</v>
+        <v>1.181613539668367</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.437526534969263</v>
+        <v>1.439108018064686</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.533575441586252</v>
+        <v>1.215919743239918</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.601690039172592</v>
+        <v>1.568905955397412</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.439103432641325</v>
+        <v>1.509604798094113</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.250975978156135</v>
+        <v>1.638745719968347</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.504181356704369</v>
+        <v>1.611302488447042</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.350797360769521</v>
+        <v>1.520958398502512</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.510199100128121</v>
+        <v>1.611434419812877</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.639521712071919</v>
+        <v>1.522425407209128</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.571422661226786</v>
+        <v>1.402460603037949</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.524719385277109</v>
+        <v>1.024568084154089</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.354261890380573</v>
+        <v>1.65808989867029</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.583940998954638</v>
+        <v>1.29749973329606</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="F63">
-        <v>1.299095366193901</v>
+        <v>1.322874162432662</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.607358732420519</v>
+        <v>1.479424362901205</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.470262336209592</v>
+        <v>1.465947021084204</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.463049152858779</v>
+        <v>1.491287638353459</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.443817018540583</v>
+        <v>1.526076473128779</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.423893780473453</v>
+        <v>1.533577995340251</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.569192222620152</v>
+        <v>1.545951722742594</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.489587118389502</v>
+        <v>1.438038172417878</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.67014921785079</v>
+        <v>1.239300147549457</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.536329797816296</v>
+        <v>1.309652315223928</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.373625810438011</v>
+        <v>1.670880856709278</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1.487519457095722</v>
+        <v>1.402924057540222</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.361732740120768</v>
+        <v>1.368907161442353</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.557614554472635</v>
+        <v>1.397748774991153</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.551871819940332</v>
+        <v>1.616493641755647</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.455935018615073</v>
+        <v>1.411832451499354</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.610001804714212</v>
+        <v>1.39964938306368</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.286524544712252</v>
+        <v>1.4365564105975</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.442786772079017</v>
+        <v>1.421715237966444</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.616078025791157</v>
+        <v>1.522109164749394</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.630293018389206</v>
+        <v>1.198109950062727</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.592397356116908</v>
+        <v>1.215251698242321</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.639334789089444</v>
+        <v>1.473951739672774</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.37117500650078</v>
+        <v>1.347463683278158</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.686747598730315</v>
+        <v>1.443386192069992</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.161882929364652</v>
+        <v>1.559301151818301</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.435153546996577</v>
+        <v>1.870716418819835</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.395203349746686</v>
+        <v>1.736836355770431</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.524096359547835</v>
+        <v>1.439527254400147</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.372065224992742</v>
+        <v>1.497391390639194</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.480047749195727</v>
+        <v>1.322220434248224</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.246006929433888</v>
+        <v>1.65488457153201</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.422341960041045</v>
+        <v>1.556177115960014</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.637599022710502</v>
+        <v>1.495917821302227</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.399527506770255</v>
+        <v>1.485424728882876</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.593230187469877</v>
+        <v>1.197828442745719</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.733125399923301</v>
+        <v>1.620348475716013</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.544241991676909</v>
+        <v>1.57180652678751</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.288655057926731</v>
+        <v>1.798030002896056</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.517647574550839</v>
+        <v>1.457396264948692</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.277260722893925</v>
+        <v>1.517081533197407</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.698638265551199</v>
+        <v>1.396400666520194</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.755603533579908</v>
+        <v>1.54169012140575</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.61375908676425</v>
+        <v>1.664052843139654</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.621315302296858</v>
+        <v>1.259033701486198</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.513737026757003</v>
+        <v>1.554863785250158</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.600737430005231</v>
+        <v>1.342327919494686</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.415266998120863</v>
+        <v>1.47266981270464</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.464771063911884</v>
+        <v>1.358631879832812</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.268255157060499</v>
+        <v>1.484813437499533</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.550487354549192</v>
+        <v>1.6589351312217</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.751132187097588</v>
+        <v>1.431000878410797</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.538574001639612</v>
+        <v>1.499764770345429</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.438920973085983</v>
+        <v>1.578007992615185</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.442551309650515</v>
+        <v>1.588275811926357</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.554644659857424</v>
+        <v>1.469091583492889</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.674869689758651</v>
+        <v>1.428698077056226</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.519325073548155</v>
+        <v>1.458490829851015</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.472243882389785</v>
+        <v>1.602599027518343</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.678598119044763</v>
+        <v>1.483419197319518</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.661775860151687</v>
+        <v>1.175781816690577</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.421234772474971</v>
+        <v>1.551092701920243</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.852940612739704</v>
+        <v>1.68917673941685</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.905594412950752</v>
+        <v>1.519411106860383</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.472472503809229</v>
+        <v>1.358696201096225</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.572028437388266</v>
+        <v>1.399435996821722</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.348918830390059</v>
+        <v>1.43647935099286</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.521226175957604</v>
+        <v>1.570939642810998</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.707752186827433</v>
+        <v>1.555190409766784</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.547009300636842</v>
+        <v>1.451726904011952</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.46371296708114</v>
+        <v>1.596173336862733</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.657566400299243</v>
+        <v>1.243232689005783</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.402041613915031</v>
+        <v>1.431742191983862</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.419232469948879</v>
+        <v>1.510091583408792</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.820664422969824</v>
+        <v>1.452107845706352</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.511164747944226</v>
+        <v>1.554607933799496</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.631662254124196</v>
+        <v>1.468486424342149</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.576208287331106</v>
+        <v>1.495618183433428</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.556831580511501</v>
+        <v>1.369984774398309</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.543505968299864</v>
+        <v>1.806196674273537</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.403637794838294</v>
+        <v>1.070739831720047</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.322146311577222</v>
+        <v>1.322514413851377</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.669951244914521</v>
+        <v>1.446227811253125</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.532104030865895</v>
+        <v>1.512063843263017</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.250646105995754</v>
+        <v>1.457435335032875</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.516450984384254</v>
+        <v>1.463250532630942</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.675014712533967</v>
+        <v>1.418640289307749</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.466362992089802</v>
+        <v>1.492672474455569</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.275703590869754</v>
+        <v>1.476392917656199</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.341325372714254</v>
+        <v>1.409044366010042</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.431645650977754</v>
+        <v>1.37224548835652</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.325584431447472</v>
+        <v>1.80884604889903</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.666006190053428</v>
+        <v>1.465646977373274</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.570034819152123</v>
+        <v>1.298988257998096</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.453833652888485</v>
+        <v>1.788960756353333</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.505860395344414</v>
+        <v>1.43965063719853</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.52867062339039</v>
+        <v>1.523529005402383</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.394620788880549</v>
+        <v>1.344229449261736</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.575071367397507</v>
+        <v>1.422066292730555</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.395202777093891</v>
+        <v>1.076661060498863</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.065048624149692</v>
+        <v>1.507285291465519</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.437144012424677</v>
+        <v>1.386832030444047</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.253308848871817</v>
+        <v>1.678047551344227</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.525542089733723</v>
+        <v>1.528773294749838</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.324173675125454</v>
+        <v>1.559096096280364</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.69986443381784</v>
+        <v>1.409109767759562</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.486301600044457</v>
+        <v>1.713897165970984</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.629770484788159</v>
+        <v>1.315592748551358</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.576857337140735</v>
+        <v>1.425650665246833</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.319621622357831</v>
+        <v>1.558394444437342</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.31311384262357</v>
+        <v>1.370738465402048</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.536081082147016</v>
+        <v>1.726326888964207</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="F175">
-        <v>1.15934203006946</v>
+        <v>1.411056877589483</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.384861118131288</v>
+        <v>1.559666589881848</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.16617666541772</v>
+        <v>1.511358200001108</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.699960374647304</v>
+        <v>1.370350812244779</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.575667032210598</v>
+        <v>1.493259842182417</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.410123206660837</v>
+        <v>1.619186737297742</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.576048227704126</v>
+        <v>1.652234866055148</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.580106576793763</v>
+        <v>1.546955537813761</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.406348147128718</v>
+        <v>1.364744114150136</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.779233278735454</v>
+        <v>1.366893406498639</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.500959767805867</v>
+        <v>1.458835791753593</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.638207552156072</v>
+        <v>1.330789557816741</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.306361318876755</v>
+        <v>1.425661176841269</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.31055833340718</v>
+        <v>1.473373849807665</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.645492646382391</v>
+        <v>1.307769127702902</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190">
-        <v>1.43466547800592</v>
+        <v>1.622986347040236</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.49457767810091</v>
+        <v>1.566645227904033</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.681975065010517</v>
+        <v>1.383792075271515</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.626872698365606</v>
+        <v>1.44720729455572</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.496238934245358</v>
+        <v>1.526644191374245</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.517094428107934</v>
+        <v>1.213366051177901</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.513927897326068</v>
+        <v>1.348876088631923</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.790997422860706</v>
+        <v>1.532331014333951</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.341781828162832</v>
+        <v>1.637969418497622</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.485120995857064</v>
+        <v>1.691680827288877</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.621511350889158</v>
+        <v>1.398757666366205</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.655956045114815</v>
+        <v>1.534559742144697</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.706848739908202</v>
+        <v>1.551177320620925</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.348694298183315</v>
+        <v>1.661198974204545</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.63679354389584</v>
+        <v>1.329286016673538</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.563818588299769</v>
+        <v>1.615617587656889</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.538527995224042</v>
+        <v>1.492115166912903</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.709264597103557</v>
+        <v>1.392764469165215</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.335475664341017</v>
+        <v>1.569790141755395</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.720221259380566</v>
+        <v>1.658293653330741</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.581949125707235</v>
+        <v>1.423513019305227</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.382570721722541</v>
+        <v>1.655212812063813</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.34438727590663</v>
+        <v>1.272232271114772</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.707287194139351</v>
+        <v>1.552289386782311</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.44886416180392</v>
+        <v>1.369213934650696</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.706744936380321</v>
+        <v>1.611446481786378</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.621610083200804</v>
+        <v>1.442609943565554</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.438299114589073</v>
+        <v>1.431982056435276</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.679826568306302</v>
+        <v>1.660862920901337</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.550614613365878</v>
+        <v>1.677137365705041</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.210877683385469</v>
+        <v>1.770787023943347</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.369623344931618</v>
+        <v>1.616423329200928</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.356091947867936</v>
+        <v>1.397976843192006</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.576657591963586</v>
+        <v>1.640280595136758</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.489246680410216</v>
+        <v>1.62416062563371</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.41840033333185</v>
+        <v>1.452082341876135</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.514212377396865</v>
+        <v>1.466064918955733</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.353715883478705</v>
+        <v>1.580555130683822</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.567298206417917</v>
+        <v>1.86908833913489</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.468377411664172</v>
+        <v>1.578391982577869</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.720762023144141</v>
+        <v>1.414320454447529</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.509400599225616</v>
+        <v>1.520314425908218</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.668508215774645</v>
+        <v>1.709683116896585</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.540201357938433</v>
+        <v>1.427522406085997</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.645367881590436</v>
+        <v>1.506468899554524</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.6485786775021</v>
+        <v>1.359697006319253</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.629165686020846</v>
+        <v>1.686647832520123</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.463010810664045</v>
+        <v>1.64495179261439</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5923,10 +5923,10 @@
         <v>3</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>1.544089489765535</v>
+        <v>1.305787823283373</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.582157154556467</v>
+        <v>1.353551609066297</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.696648256763617</v>
+        <v>1.50509462545335</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.487120491914483</v>
+        <v>1.451087276287304</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.84911158444131</v>
+        <v>1.345162935889211</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.698122397249186</v>
+        <v>1.590837240026745</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.440641993442869</v>
+        <v>1.588916910911194</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.609179537803069</v>
+        <v>1.556099352493228</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.275683566315755</v>
+        <v>1.672110059607943</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.427153939472001</v>
+        <v>1.451568600116588</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.547533784013691</v>
+        <v>1.635939897565292</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.530462311419175</v>
+        <v>1.419881996754089</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.355802762393437</v>
+        <v>1.502105044822837</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.559131958637482</v>
+        <v>1.545790200171812</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.361360149551923</v>
+        <v>1.411692220000394</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.251056298744808</v>
+        <v>1.552974853739651</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.461817982240107</v>
+        <v>1.478356469032751</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.499649714625955</v>
+        <v>1.444310967307284</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.468010414766349</v>
+        <v>1.381251065426034</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.381550281162213</v>
+        <v>1.565060443565368</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/20_localizer.xlsx
+++ b/sequences/20_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
     <t>dog/dog044.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>house/house035.jpg</t>
   </si>
   <si>
     <t>flower/flower049.jpg</t>
   </si>
   <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
   </si>
   <si>
     <t>house/house056.jpg</t>
   </si>
   <si>
-    <t>face/face054.jpg</t>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>face/face063.jpg</t>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>dog/dog079.jpg</t>
   </si>
   <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
   </si>
   <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.549733918974392</v>
+        <v>1.419786388645069</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.383285995522886</v>
+        <v>1.838484482878872</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.426606026882802</v>
+        <v>1.265063013062851</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.37397242038834</v>
+        <v>1.406225537895676</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.382547587306157</v>
+        <v>1.324566465802271</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.432217164111851</v>
+        <v>1.507983740862129</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.488370310942713</v>
+        <v>1.630533751752462</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.848642408918511</v>
+        <v>1.651396963640331</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.377474488218178</v>
+        <v>1.305357745770935</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.704759270866784</v>
+        <v>1.703898412618535</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.462758988027848</v>
+        <v>1.275078310499745</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.420196055288595</v>
+        <v>1.503002097863416</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.442099174855928</v>
+        <v>1.57834164553187</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.41714106483572</v>
+        <v>1.565036063587987</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.469223394501763</v>
+        <v>1.611562445708479</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.509786716314371</v>
+        <v>1.442430277214162</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.331563316066195</v>
+        <v>1.531387310839118</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.546816879156482</v>
+        <v>1.504504821040727</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.576561558136776</v>
+        <v>1.552464185223019</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.321803586020534</v>
+        <v>1.259313847734072</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.55368013466838</v>
+        <v>1.615932702827206</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.764441510669384</v>
+        <v>1.630230196739723</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.545194063947397</v>
+        <v>1.576878677069383</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.285781367920983</v>
+        <v>1.512840936287067</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.418851678251753</v>
+        <v>1.508340710253191</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.255636497538589</v>
+        <v>1.633037276028105</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.280187414280488</v>
+        <v>1.69789977213005</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.518789704029079</v>
+        <v>1.559495869264277</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.576278757374898</v>
+        <v>1.642366560576789</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.416220789425878</v>
+        <v>1.713118915856823</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.558688145309081</v>
+        <v>1.643455389712583</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.704937586387832</v>
+        <v>1.454602311509327</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.722123512020389</v>
+        <v>1.387841225026809</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.447468310240826</v>
+        <v>1.803273247821434</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.499064957880804</v>
+        <v>1.455294866270634</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.259204564459758</v>
+        <v>1.312039270180362</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.370161043076053</v>
+        <v>1.55091614646635</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.639809008158863</v>
+        <v>1.398065019859443</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.618073636633636</v>
+        <v>1.357560158996834</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.512003432351088</v>
+        <v>1.464000718739249</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.146423620762915</v>
+        <v>1.66823481248062</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.562199034812567</v>
+        <v>1.791771533856053</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.62081123594717</v>
+        <v>1.507418038359398</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.449477599699989</v>
+        <v>1.398828918373151</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.50144843779845</v>
+        <v>1.340741328541918</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.644547793377456</v>
+        <v>1.529429695574662</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.540287105590648</v>
+        <v>1.621620576073748</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.181613539668367</v>
+        <v>1.530925542556578</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.439108018064686</v>
+        <v>1.689146212987722</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.215919743239918</v>
+        <v>1.570446003649268</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.568905955397412</v>
+        <v>1.638297710668939</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.509604798094113</v>
+        <v>1.509721338961333</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.638745719968347</v>
+        <v>1.490427661071773</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.611302488447042</v>
+        <v>1.68361471835325</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.520958398502512</v>
+        <v>1.662826302243906</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.611434419812877</v>
+        <v>1.48870623106216</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.522425407209128</v>
+        <v>1.575127858039845</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.402460603037949</v>
+        <v>1.479945088977459</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.024568084154089</v>
+        <v>1.58724501490354</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.65808989867029</v>
+        <v>1.670390284062306</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.29749973329606</v>
+        <v>1.292924678814523</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.322874162432662</v>
+        <v>1.51845445494975</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.479424362901205</v>
+        <v>1.59800681214915</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.465947021084204</v>
+        <v>1.727863307471865</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.491287638353459</v>
+        <v>1.427455381116847</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.526076473128779</v>
+        <v>1.738938526646989</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.533577995340251</v>
+        <v>1.598138520181059</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.545951722742594</v>
+        <v>1.438009462287818</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.438038172417878</v>
+        <v>1.641809021664248</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.239300147549457</v>
+        <v>1.12569198561004</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.309652315223928</v>
+        <v>1.427062583614356</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.670880856709278</v>
+        <v>1.672221497480739</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F74">
-        <v>1.402924057540222</v>
+        <v>1.529486230705023</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.368907161442353</v>
+        <v>1.44535733801334</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.397748774991153</v>
+        <v>1.588705155147877</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.616493641755647</v>
+        <v>1.516143949071013</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.411832451499354</v>
+        <v>1.411277859600943</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.39964938306368</v>
+        <v>1.709296795760959</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.4365564105975</v>
+        <v>1.564924861970659</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.421715237966444</v>
+        <v>1.607521625461101</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.522109164749394</v>
+        <v>1.55804219103176</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.198109950062727</v>
+        <v>1.560113095232364</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.215251698242321</v>
+        <v>1.64181607840244</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.473951739672774</v>
+        <v>1.54601349909543</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.347463683278158</v>
+        <v>1.617343011417456</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.443386192069992</v>
+        <v>1.449600607628027</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.559301151818301</v>
+        <v>1.563137126404154</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.870716418819835</v>
+        <v>1.432560423695997</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.736836355770431</v>
+        <v>1.70590897116158</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.439527254400147</v>
+        <v>1.671003376411621</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.497391390639194</v>
+        <v>1.624808005342369</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.322220434248224</v>
+        <v>1.358429175538758</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.65488457153201</v>
+        <v>1.487122738942424</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.556177115960014</v>
+        <v>1.65193404053104</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.495917821302227</v>
+        <v>1.666416105439913</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.485424728882876</v>
+        <v>1.629443595644074</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.197828442745719</v>
+        <v>1.474096045456943</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.620348475716013</v>
+        <v>1.337800834762948</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.57180652678751</v>
+        <v>1.40090573183776</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.798030002896056</v>
+        <v>1.63716827320387</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.457396264948692</v>
+        <v>1.344077123850025</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.517081533197407</v>
+        <v>1.775827950410565</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.396400666520194</v>
+        <v>1.533343464992739</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.54169012140575</v>
+        <v>1.731517860270847</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.664052843139654</v>
+        <v>1.581164155624569</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.259033701486198</v>
+        <v>1.373264384304875</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.554863785250158</v>
+        <v>1.671391513765475</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.342327919494686</v>
+        <v>1.542527125370805</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.47266981270464</v>
+        <v>1.44058740593314</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.358631879832812</v>
+        <v>1.294783186216434</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.484813437499533</v>
+        <v>1.669520088402645</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.6589351312217</v>
+        <v>1.9045072621338</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.431000878410797</v>
+        <v>1.657251644009011</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.499764770345429</v>
+        <v>1.478054964220132</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.578007992615185</v>
+        <v>1.701251459298031</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.588275811926357</v>
+        <v>1.331990626951938</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.469091583492889</v>
+        <v>1.485750235522699</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.428698077056226</v>
+        <v>1.618624254489019</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.458490829851015</v>
+        <v>1.466860625315875</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1.602599027518343</v>
+        <v>1.495038429598631</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.483419197319518</v>
+        <v>1.62583184016631</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.175781816690577</v>
+        <v>1.354125741791488</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.551092701920243</v>
+        <v>1.587417952722534</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.68917673941685</v>
+        <v>1.461525187504677</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.519411106860383</v>
+        <v>1.370366533976659</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.358696201096225</v>
+        <v>1.678764494930082</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.399435996821722</v>
+        <v>1.577719858911117</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.43647935099286</v>
+        <v>1.240243724395526</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>1.570939642810998</v>
+        <v>1.329720235835243</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>1.555190409766784</v>
+        <v>1.609092127632434</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.451726904011952</v>
+        <v>1.565494216898778</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.596173336862733</v>
+        <v>1.281885068783564</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.243232689005783</v>
+        <v>1.478828850478353</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.431742191983862</v>
+        <v>1.346905438276922</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.510091583408792</v>
+        <v>1.689302111949408</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.452107845706352</v>
+        <v>1.830575242282872</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.554607933799496</v>
+        <v>1.220674911655113</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1.468486424342149</v>
+        <v>1.637232595706707</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.495618183433428</v>
+        <v>1.460932469472238</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.369984774398309</v>
+        <v>1.500306435789382</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.806196674273537</v>
+        <v>1.466248903504191</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.070739831720047</v>
+        <v>1.483265382156666</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.322514413851377</v>
+        <v>1.329375644173016</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.446227811253125</v>
+        <v>1.482253806359849</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.512063843263017</v>
+        <v>1.248433985113913</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.457435335032875</v>
+        <v>1.271226589801245</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.463250532630942</v>
+        <v>1.411681472174185</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.418640289307749</v>
+        <v>1.500390893967056</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.492672474455569</v>
+        <v>1.609372499436637</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.476392917656199</v>
+        <v>1.347229065610541</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.409044366010042</v>
+        <v>1.597748514940449</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.37224548835652</v>
+        <v>1.515112901412774</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.80884604889903</v>
+        <v>1.54127626743466</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.465646977373274</v>
+        <v>1.540511497710788</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.298988257998096</v>
+        <v>1.6101265270315</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.788960756353333</v>
+        <v>1.464891185210564</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.43965063719853</v>
+        <v>1.507968811008432</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.523529005402383</v>
+        <v>1.458258778306341</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.344229449261736</v>
+        <v>1.491510557820743</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.422066292730555</v>
+        <v>1.577909037989387</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.076661060498863</v>
+        <v>1.456525336403216</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.507285291465519</v>
+        <v>1.352345224713562</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.386832030444047</v>
+        <v>1.402225204901477</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.678047551344227</v>
+        <v>1.759257392931127</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.528773294749838</v>
+        <v>1.876265160902029</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.559096096280364</v>
+        <v>1.475416529662561</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.409109767759562</v>
+        <v>1.752704735661993</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.713897165970984</v>
+        <v>1.547415625087092</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.315592748551358</v>
+        <v>1.148544311919791</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.425650665246833</v>
+        <v>1.55645906999129</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.558394444437342</v>
+        <v>1.657724596834567</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.370738465402048</v>
+        <v>1.32850858013777</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.726326888964207</v>
+        <v>1.478844919207082</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.411056877589483</v>
+        <v>1.385357885296916</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.559666589881848</v>
+        <v>1.528230069799348</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.511358200001108</v>
+        <v>1.289931674711845</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.370350812244779</v>
+        <v>1.413274452894374</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.493259842182417</v>
+        <v>1.597818280415273</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.619186737297742</v>
+        <v>1.279397220790295</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.652234866055148</v>
+        <v>1.486946367757003</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.546955537813761</v>
+        <v>1.495067822804512</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.364744114150136</v>
+        <v>1.133247759929935</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.366893406498639</v>
+        <v>1.615953289511854</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.458835791753593</v>
+        <v>1.625303936890602</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.330789557816741</v>
+        <v>1.479090202656501</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.425661176841269</v>
+        <v>1.28877662338169</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.473373849807665</v>
+        <v>1.449963649278151</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.307769127702902</v>
+        <v>1.838801191489309</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>1.622986347040236</v>
+        <v>1.58350483844599</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.566645227904033</v>
+        <v>1.42083983642596</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.383792075271515</v>
+        <v>1.567982657176649</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.44720729455572</v>
+        <v>1.552048522732068</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.526644191374245</v>
+        <v>1.401348452597875</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.213366051177901</v>
+        <v>1.504466247393751</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.348876088631923</v>
+        <v>1.449169062766641</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.532331014333951</v>
+        <v>1.455183536867325</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.637969418497622</v>
+        <v>1.313636581996905</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>1.691680827288877</v>
+        <v>1.431377799911691</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.398757666366205</v>
+        <v>1.468309073752429</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.534559742144697</v>
+        <v>1.31048270576302</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.551177320620925</v>
+        <v>1.322594046178762</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.661198974204545</v>
+        <v>1.534133964607283</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.329286016673538</v>
+        <v>1.321414954238286</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.615617587656889</v>
+        <v>1.551102195572206</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.492115166912903</v>
+        <v>1.455132495604391</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.392764469165215</v>
+        <v>1.558190114217291</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.569790141755395</v>
+        <v>1.788635167906681</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>1.658293653330741</v>
+        <v>1.569442980573546</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.423513019305227</v>
+        <v>1.479483173960757</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.655212812063813</v>
+        <v>1.441560367519285</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.272232271114772</v>
+        <v>1.477051452366174</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.552289386782311</v>
+        <v>1.250240275143272</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.369213934650696</v>
+        <v>1.477524130970846</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.611446481786378</v>
+        <v>1.406061130273852</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.442609943565554</v>
+        <v>1.65708324551307</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.431982056435276</v>
+        <v>1.523164760655866</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.660862920901337</v>
+        <v>1.806628183585038</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.677137365705041</v>
+        <v>1.13875797006752</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.770787023943347</v>
+        <v>1.408599642020213</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.616423329200928</v>
+        <v>1.62247929057383</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.397976843192006</v>
+        <v>1.52872289671092</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.640280595136758</v>
+        <v>1.509409700744902</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.62416062563371</v>
+        <v>1.615990572092115</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.452082341876135</v>
+        <v>1.551646294245053</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.466064918955733</v>
+        <v>1.49663387098677</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.580555130683822</v>
+        <v>1.400746715994107</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.86908833913489</v>
+        <v>1.394213115532314</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.578391982577869</v>
+        <v>1.667908110775693</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.414320454447529</v>
+        <v>1.251245872348232</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.520314425908218</v>
+        <v>1.471948880113332</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.709683116896585</v>
+        <v>1.275866744649938</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.427522406085997</v>
+        <v>1.325602927956837</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.506468899554524</v>
+        <v>1.402312785095628</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.359697006319253</v>
+        <v>1.329271328106115</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.686647832520123</v>
+        <v>1.775069426137528</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.64495179261439</v>
+        <v>1.358005811013049</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.305787823283373</v>
+        <v>1.627049143410046</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.353551609066297</v>
+        <v>1.743669258753587</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.50509462545335</v>
+        <v>1.368989124464564</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.451087276287304</v>
+        <v>1.735433046004307</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.345162935889211</v>
+        <v>1.565238514476227</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.590837240026745</v>
+        <v>1.870003156688213</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.588916910911194</v>
+        <v>1.382733183888843</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.556099352493228</v>
+        <v>1.388186610934731</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.672110059607943</v>
+        <v>1.434807042633887</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.451568600116588</v>
+        <v>1.510452222107834</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.635939897565292</v>
+        <v>1.360750819949639</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.419881996754089</v>
+        <v>1.485232432097266</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.502105044822837</v>
+        <v>1.419744364449139</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.545790200171812</v>
+        <v>1.419280838284582</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.411692220000394</v>
+        <v>1.424472839934907</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.552974853739651</v>
+        <v>1.577384142251161</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.478356469032751</v>
+        <v>1.768056793935849</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.444310967307284</v>
+        <v>1.424229748875668</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.381251065426034</v>
+        <v>1.502677305741425</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.565060443565368</v>
+        <v>1.390736325754837</v>
       </c>
     </row>
   </sheetData>
